--- a/results/mp/deberta/corona/confidence/126/stop-words-0.1/avg_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/126/stop-words-0.1/avg_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1687" uniqueCount="1475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1685" uniqueCount="1475">
   <si>
     <t>anchor score</t>
   </si>
@@ -463,784 +463,784 @@
     <t>complaint</t>
   </si>
   <si>
+    <t>gold</t>
+  </si>
+  <si>
+    <t>profits</t>
+  </si>
+  <si>
+    <t>extra</t>
+  </si>
+  <si>
+    <t>hits</t>
+  </si>
+  <si>
+    <t>lady</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>app</t>
+  </si>
+  <si>
+    <t>significant</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>uncertainty</t>
+  </si>
+  <si>
+    <t>shock</t>
+  </si>
+  <si>
+    <t>shares</t>
+  </si>
+  <si>
+    <t>toronto</t>
+  </si>
+  <si>
+    <t>entire</t>
+  </si>
+  <si>
+    <t>shame</t>
+  </si>
+  <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>warned</t>
+  </si>
+  <si>
+    <t>feels</t>
+  </si>
+  <si>
+    <t>details</t>
+  </si>
+  <si>
+    <t>suppliers</t>
+  </si>
+  <si>
+    <t>damn</t>
+  </si>
+  <si>
+    <t>vulnerable</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>donations</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>volunteers</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>ac</t>
+  </si>
+  <si>
+    <t>pa</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>ago</t>
+  </si>
+  <si>
+    <t>listen</t>
+  </si>
+  <si>
+    <t>symptoms</t>
+  </si>
+  <si>
+    <t>power</t>
+  </si>
+  <si>
+    <t>hot</t>
+  </si>
+  <si>
+    <t>debt</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>eu</t>
+  </si>
+  <si>
+    <t>mortgage</t>
+  </si>
+  <si>
+    <t>law</t>
+  </si>
+  <si>
+    <t>cc</t>
+  </si>
+  <si>
+    <t>stocks</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>wanted</t>
+  </si>
+  <si>
+    <t>offering</t>
+  </si>
+  <si>
+    <t>inflated</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>rest</t>
+  </si>
+  <si>
+    <t>worry</t>
+  </si>
+  <si>
+    <t>fucking</t>
+  </si>
+  <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>provide</t>
+  </si>
+  <si>
+    <t>residents</t>
+  </si>
+  <si>
+    <t>risk</t>
+  </si>
+  <si>
+    <t>experience</t>
+  </si>
+  <si>
+    <t>finally</t>
+  </si>
+  <si>
+    <t>farm</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>limited</t>
+  </si>
+  <si>
+    <t>cause</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>fruit</t>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t>sentiment</t>
+  </si>
+  <si>
+    <t>etc</t>
+  </si>
+  <si>
+    <t>means</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>stimulus</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>pre</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>show</t>
+  </si>
+  <si>
+    <t>website</t>
+  </si>
+  <si>
+    <t>putting</t>
+  </si>
+  <si>
+    <t>000</t>
+  </si>
+  <si>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>daily</t>
+  </si>
+  <si>
+    <t>countries</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>serious</t>
+  </si>
+  <si>
+    <t>shift</t>
+  </si>
+  <si>
+    <t>bread</t>
+  </si>
+  <si>
+    <t>together</t>
+  </si>
+  <si>
+    <t>advantage</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>struggling</t>
+  </si>
+  <si>
+    <t>recession</t>
+  </si>
+  <si>
+    <t>based</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>least</t>
+  </si>
+  <si>
+    <t>wearing</t>
+  </si>
+  <si>
+    <t>sick</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>advice</t>
+  </si>
+  <si>
+    <t>ia</t>
+  </si>
+  <si>
+    <t>produce</t>
+  </si>
+  <si>
+    <t>crazy</t>
+  </si>
+  <si>
+    <t>woman</t>
+  </si>
+  <si>
+    <t>national</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>roll</t>
+  </si>
+  <si>
+    <t>remember</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>profit</t>
+  </si>
+  <si>
+    <t>story</t>
+  </si>
+  <si>
+    <t>part</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>retailers</t>
+  </si>
+  <si>
+    <t>meat</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>healthcare</t>
+  </si>
+  <si>
+    <t>amazon</t>
+  </si>
+  <si>
+    <t>watch</t>
+  </si>
+  <si>
+    <t>supermarkets</t>
+  </si>
+  <si>
+    <t>shops</t>
+  </si>
+  <si>
+    <t>foods</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>latest</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>markets</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>meet</t>
+  </si>
+  <si>
+    <t>banks</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>march</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>stores</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>really</t>
+  </si>
+  <si>
+    <t>fight</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>products</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>items</t>
+  </si>
+  <si>
+    <t>want</t>
+  </si>
+  <si>
+    <t>way</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>got</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>think</t>
+  </si>
+  <si>
+    <t>via</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>ho</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>outbreak</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>amid</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>go</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>demand</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>popular</t>
+  </si>
+  <si>
+    <t>honest</t>
+  </si>
+  <si>
+    <t>appreciated</t>
+  </si>
+  <si>
+    <t>bless</t>
+  </si>
+  <si>
+    <t>bonus</t>
+  </si>
+  <si>
+    <t>beauty</t>
+  </si>
+  <si>
+    <t>winning</t>
+  </si>
+  <si>
+    <t>fantastic</t>
+  </si>
+  <si>
+    <t>smile</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>safely</t>
+  </si>
+  <si>
+    <t>enjoy</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>surely</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>welcome</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>innovation</t>
+  </si>
+  <si>
+    <t>favorite</t>
+  </si>
+  <si>
+    <t>opportunity</t>
+  </si>
+  <si>
+    <t>encouraging</t>
+  </si>
+  <si>
+    <t>awesome</t>
+  </si>
+  <si>
+    <t>appreciation</t>
+  </si>
+  <si>
+    <t>thankful</t>
+  </si>
+  <si>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>benefits</t>
+  </si>
+  <si>
+    <t>grateful</t>
+  </si>
+  <si>
+    <t>luxury</t>
+  </si>
+  <si>
+    <t>valuable</t>
+  </si>
+  <si>
+    <t>birthday</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>helps</t>
+  </si>
+  <si>
+    <t>partners</t>
+  </si>
+  <si>
+    <t>interest</t>
+  </si>
+  <si>
+    <t>humor</t>
+  </si>
+  <si>
+    <t>safer</t>
+  </si>
+  <si>
+    <t>likes</t>
+  </si>
+  <si>
+    <t>proud</t>
+  </si>
+  <si>
+    <t>garden</t>
+  </si>
+  <si>
+    <t>definitely</t>
+  </si>
+  <si>
+    <t>highlight</t>
+  </si>
+  <si>
+    <t>hilarious</t>
+  </si>
+  <si>
+    <t>cool</t>
+  </si>
+  <si>
+    <t>cute</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>gold</t>
-  </si>
-  <si>
-    <t>profits</t>
-  </si>
-  <si>
-    <t>extra</t>
-  </si>
-  <si>
-    <t>hits</t>
-  </si>
-  <si>
-    <t>lady</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>app</t>
-  </si>
-  <si>
-    <t>significant</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>uncertainty</t>
-  </si>
-  <si>
-    <t>shock</t>
-  </si>
-  <si>
-    <t>shares</t>
-  </si>
-  <si>
-    <t>toronto</t>
-  </si>
-  <si>
-    <t>entire</t>
-  </si>
-  <si>
-    <t>shame</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>warned</t>
-  </si>
-  <si>
-    <t>feels</t>
-  </si>
-  <si>
-    <t>details</t>
-  </si>
-  <si>
-    <t>suppliers</t>
-  </si>
-  <si>
-    <t>damn</t>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>affordable</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>trust</t>
+  </si>
+  <si>
+    <t>useful</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>wise</t>
+  </si>
+  <si>
+    <t>encourage</t>
+  </si>
+  <si>
+    <t>brave</t>
+  </si>
+  <si>
+    <t>glad</t>
+  </si>
+  <si>
+    <t>initiative</t>
+  </si>
+  <si>
+    <t>effective</t>
+  </si>
+  <si>
+    <t>supporting</t>
+  </si>
+  <si>
+    <t>respect</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>tool</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>asset</t>
+  </si>
+  <si>
+    <t>content</t>
+  </si>
+  <si>
+    <t>smart</t>
+  </si>
+  <si>
+    <t>donation</t>
+  </si>
+  <si>
+    <t>funny</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>dow</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>pure</t>
   </si>
   <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>vulnerable</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>donations</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>volunteers</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>ac</t>
-  </si>
-  <si>
-    <t>pa</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>ago</t>
-  </si>
-  <si>
-    <t>listen</t>
-  </si>
-  <si>
-    <t>symptoms</t>
-  </si>
-  <si>
-    <t>power</t>
-  </si>
-  <si>
-    <t>hot</t>
-  </si>
-  <si>
-    <t>debt</t>
-  </si>
-  <si>
-    <t>g</t>
-  </si>
-  <si>
-    <t>eu</t>
-  </si>
-  <si>
-    <t>mortgage</t>
-  </si>
-  <si>
-    <t>law</t>
-  </si>
-  <si>
-    <t>cc</t>
-  </si>
-  <si>
-    <t>stocks</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>wanted</t>
-  </si>
-  <si>
-    <t>offering</t>
-  </si>
-  <si>
-    <t>inflated</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>rest</t>
-  </si>
-  <si>
-    <t>worry</t>
-  </si>
-  <si>
-    <t>fucking</t>
-  </si>
-  <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>provide</t>
-  </si>
-  <si>
-    <t>residents</t>
-  </si>
-  <si>
-    <t>risk</t>
-  </si>
-  <si>
-    <t>experience</t>
-  </si>
-  <si>
-    <t>finally</t>
-  </si>
-  <si>
-    <t>farm</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>limited</t>
-  </si>
-  <si>
-    <t>cause</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>q</t>
-  </si>
-  <si>
-    <t>fruit</t>
-  </si>
-  <si>
-    <t>group</t>
-  </si>
-  <si>
-    <t>sentiment</t>
-  </si>
-  <si>
-    <t>etc</t>
-  </si>
-  <si>
-    <t>means</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>stimulus</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>pre</t>
-  </si>
-  <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>show</t>
-  </si>
-  <si>
-    <t>website</t>
-  </si>
-  <si>
-    <t>putting</t>
-  </si>
-  <si>
-    <t>000</t>
-  </si>
-  <si>
-    <t>avoid</t>
-  </si>
-  <si>
-    <t>daily</t>
-  </si>
-  <si>
-    <t>countries</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>serious</t>
-  </si>
-  <si>
-    <t>shift</t>
-  </si>
-  <si>
-    <t>bread</t>
-  </si>
-  <si>
-    <t>together</t>
-  </si>
-  <si>
-    <t>advantage</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>struggling</t>
-  </si>
-  <si>
-    <t>recession</t>
-  </si>
-  <si>
-    <t>based</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>least</t>
-  </si>
-  <si>
-    <t>wearing</t>
-  </si>
-  <si>
-    <t>sick</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>advice</t>
-  </si>
-  <si>
-    <t>ia</t>
-  </si>
-  <si>
-    <t>produce</t>
-  </si>
-  <si>
-    <t>crazy</t>
-  </si>
-  <si>
-    <t>woman</t>
-  </si>
-  <si>
-    <t>national</t>
-  </si>
-  <si>
-    <t>close</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>roll</t>
-  </si>
-  <si>
-    <t>remember</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>profit</t>
-  </si>
-  <si>
-    <t>story</t>
-  </si>
-  <si>
-    <t>part</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>retailers</t>
-  </si>
-  <si>
-    <t>meat</t>
-  </si>
-  <si>
-    <t>live</t>
-  </si>
-  <si>
-    <t>healthcare</t>
-  </si>
-  <si>
-    <t>amazon</t>
-  </si>
-  <si>
-    <t>watch</t>
-  </si>
-  <si>
-    <t>supermarkets</t>
-  </si>
-  <si>
-    <t>shops</t>
-  </si>
-  <si>
-    <t>foods</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>latest</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>markets</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>meet</t>
-  </si>
-  <si>
-    <t>banks</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>march</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>state</t>
-  </si>
-  <si>
-    <t>line</t>
-  </si>
-  <si>
-    <t>stores</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>really</t>
-  </si>
-  <si>
-    <t>fight</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>products</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>items</t>
-  </si>
-  <si>
-    <t>want</t>
-  </si>
-  <si>
-    <t>way</t>
-  </si>
-  <si>
-    <t>read</t>
-  </si>
-  <si>
-    <t>got</t>
-  </si>
-  <si>
-    <t>everyone</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>think</t>
-  </si>
-  <si>
-    <t>via</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>today</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>ho</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>outbreak</t>
-  </si>
-  <si>
-    <t>shop</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>amid</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>prices</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>go</t>
-  </si>
-  <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>demand</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>people</t>
-  </si>
-  <si>
-    <t>popular</t>
-  </si>
-  <si>
-    <t>honest</t>
-  </si>
-  <si>
-    <t>appreciated</t>
-  </si>
-  <si>
-    <t>bless</t>
-  </si>
-  <si>
-    <t>bonus</t>
-  </si>
-  <si>
-    <t>beauty</t>
-  </si>
-  <si>
-    <t>winning</t>
-  </si>
-  <si>
-    <t>fantastic</t>
-  </si>
-  <si>
-    <t>smile</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>safely</t>
-  </si>
-  <si>
-    <t>enjoy</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>gift</t>
-  </si>
-  <si>
-    <t>surely</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>welcome</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>innovation</t>
-  </si>
-  <si>
-    <t>favorite</t>
-  </si>
-  <si>
-    <t>opportunity</t>
-  </si>
-  <si>
-    <t>encouraging</t>
-  </si>
-  <si>
-    <t>awesome</t>
-  </si>
-  <si>
-    <t>appreciation</t>
-  </si>
-  <si>
-    <t>thankful</t>
-  </si>
-  <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>benefits</t>
-  </si>
-  <si>
-    <t>grateful</t>
-  </si>
-  <si>
-    <t>luxury</t>
-  </si>
-  <si>
-    <t>valuable</t>
-  </si>
-  <si>
-    <t>birthday</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>helps</t>
-  </si>
-  <si>
-    <t>partners</t>
-  </si>
-  <si>
-    <t>interest</t>
-  </si>
-  <si>
-    <t>humor</t>
-  </si>
-  <si>
-    <t>safer</t>
-  </si>
-  <si>
-    <t>likes</t>
-  </si>
-  <si>
-    <t>proud</t>
-  </si>
-  <si>
-    <t>garden</t>
-  </si>
-  <si>
-    <t>definitely</t>
-  </si>
-  <si>
-    <t>highlight</t>
-  </si>
-  <si>
-    <t>hilarious</t>
-  </si>
-  <si>
-    <t>cool</t>
-  </si>
-  <si>
-    <t>cute</t>
-  </si>
-  <si>
-    <t>dear</t>
-  </si>
-  <si>
-    <t>affordable</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>trust</t>
-  </si>
-  <si>
-    <t>useful</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>wise</t>
-  </si>
-  <si>
-    <t>encourage</t>
-  </si>
-  <si>
-    <t>brave</t>
-  </si>
-  <si>
-    <t>glad</t>
-  </si>
-  <si>
-    <t>initiative</t>
-  </si>
-  <si>
-    <t>effective</t>
-  </si>
-  <si>
-    <t>supporting</t>
-  </si>
-  <si>
-    <t>respect</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>tool</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>asset</t>
-  </si>
-  <si>
-    <t>content</t>
-  </si>
-  <si>
-    <t>smart</t>
-  </si>
-  <si>
-    <t>donation</t>
-  </si>
-  <si>
-    <t>funny</t>
-  </si>
-  <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>dow</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>pure</t>
   </si>
   <si>
     <t>brad</t>
@@ -4804,10 +4804,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -4936,7 +4936,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -4986,7 +4986,7 @@
         <v>2</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -5036,7 +5036,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -5086,7 +5086,7 @@
         <v>1</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -5136,7 +5136,7 @@
         <v>2</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -5236,7 +5236,7 @@
         <v>4</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -5286,7 +5286,7 @@
         <v>3</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -5336,7 +5336,7 @@
         <v>16</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -5436,7 +5436,7 @@
         <v>5</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="K14">
         <v>0.9615384615384616</v>
@@ -5486,7 +5486,7 @@
         <v>7</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="K15">
         <v>0.9444444444444444</v>
@@ -5586,7 +5586,7 @@
         <v>3</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="K17">
         <v>0.9230769230769231</v>
@@ -5636,7 +5636,7 @@
         <v>4</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="K18">
         <v>0.9230769230769231</v>
@@ -5686,7 +5686,7 @@
         <v>4</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="K19">
         <v>0.9152542372881356</v>
@@ -5786,7 +5786,7 @@
         <v>3</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="K21">
         <v>0.9</v>
@@ -5936,7 +5936,7 @@
         <v>2</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="K24">
         <v>0.875</v>
@@ -6186,7 +6186,7 @@
         <v>4</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="K29">
         <v>0.8611111111111112</v>
@@ -6236,7 +6236,7 @@
         <v>4</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="K30">
         <v>0.8461538461538461</v>
@@ -6286,7 +6286,7 @@
         <v>3</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K31">
         <v>0.84251968503937</v>
@@ -6336,7 +6336,7 @@
         <v>8</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="K32">
         <v>0.8421052631578947</v>
@@ -6436,7 +6436,7 @@
         <v>4</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="K34">
         <v>0.8333333333333334</v>
@@ -6486,7 +6486,7 @@
         <v>2</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="K35">
         <v>0.8181818181818182</v>
@@ -6536,7 +6536,7 @@
         <v>2</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="K36">
         <v>0.8125</v>
@@ -6636,7 +6636,7 @@
         <v>2</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="K38">
         <v>0.8</v>
@@ -6736,7 +6736,7 @@
         <v>2</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="K40">
         <v>0.8</v>
@@ -6886,7 +6886,7 @@
         <v>13</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="K43">
         <v>0.75</v>
@@ -6936,7 +6936,7 @@
         <v>7</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="K44">
         <v>0.75</v>
@@ -7036,7 +7036,7 @@
         <v>5</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="K46">
         <v>0.7333333333333333</v>
@@ -7086,7 +7086,7 @@
         <v>5</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="K47">
         <v>0.7333333333333333</v>
@@ -7136,7 +7136,7 @@
         <v>5</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="K48">
         <v>0.7272727272727273</v>
@@ -7186,7 +7186,7 @@
         <v>5</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="K49">
         <v>0.7142857142857143</v>
@@ -7286,7 +7286,7 @@
         <v>3</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="K51">
         <v>0.7142857142857143</v>
@@ -7336,7 +7336,7 @@
         <v>3</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="K52">
         <v>0.7142857142857143</v>
@@ -7386,7 +7386,7 @@
         <v>6</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="K53">
         <v>0.7083333333333334</v>
@@ -7436,7 +7436,7 @@
         <v>3</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K54">
         <v>0.7017543859649122</v>
@@ -7536,7 +7536,7 @@
         <v>3</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="K56">
         <v>0.6984126984126984</v>
@@ -7636,7 +7636,7 @@
         <v>3</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="K58">
         <v>0.6923076923076923</v>
@@ -7736,28 +7736,28 @@
         <v>6</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>149</v>
+        <v>369</v>
       </c>
       <c r="K60">
-        <v>0.6753246753246753</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L60">
-        <v>156</v>
+        <v>4</v>
       </c>
       <c r="M60">
-        <v>164</v>
+        <v>4</v>
       </c>
       <c r="N60">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O60">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q60">
-        <v>75</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:17">
@@ -7786,28 +7786,28 @@
         <v>57</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="K61">
         <v>0.6666666666666666</v>
       </c>
       <c r="L61">
+        <v>8</v>
+      </c>
+      <c r="M61">
+        <v>8</v>
+      </c>
+      <c r="N61">
+        <v>1</v>
+      </c>
+      <c r="O61">
+        <v>0</v>
+      </c>
+      <c r="P61" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q61">
         <v>4</v>
-      </c>
-      <c r="M61">
-        <v>4</v>
-      </c>
-      <c r="N61">
-        <v>1</v>
-      </c>
-      <c r="O61">
-        <v>0</v>
-      </c>
-      <c r="P61" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q61">
-        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:17">
@@ -7836,16 +7836,16 @@
         <v>10</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="K62">
         <v>0.6666666666666666</v>
       </c>
       <c r="L62">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M62">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -7857,7 +7857,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63" spans="1:17">
@@ -7886,16 +7886,16 @@
         <v>24</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="K63">
         <v>0.6666666666666666</v>
       </c>
       <c r="L63">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="M63">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -7907,7 +7907,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64" spans="1:17">
@@ -7936,16 +7936,16 @@
         <v>7</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="K64">
         <v>0.6666666666666666</v>
       </c>
       <c r="L64">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M64">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -7957,7 +7957,7 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:17">
@@ -7986,16 +7986,16 @@
         <v>11</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="K65">
         <v>0.6666666666666666</v>
       </c>
       <c r="L65">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M65">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -8007,7 +8007,7 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="66" spans="1:17">
@@ -8036,16 +8036,16 @@
         <v>15</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="K66">
         <v>0.6666666666666666</v>
       </c>
       <c r="L66">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M66">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -8057,7 +8057,7 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:17">
@@ -8086,16 +8086,16 @@
         <v>15</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K67">
         <v>0.6666666666666666</v>
       </c>
       <c r="L67">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M67">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -8107,7 +8107,7 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="68" spans="1:17">
@@ -8136,16 +8136,16 @@
         <v>27</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="K68">
         <v>0.6666666666666666</v>
       </c>
       <c r="L68">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M68">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -8157,7 +8157,7 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:17">
@@ -8186,7 +8186,7 @@
         <v>16</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="K69">
         <v>0.6666666666666666</v>
@@ -8236,7 +8236,7 @@
         <v>4</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>380</v>
+        <v>45</v>
       </c>
       <c r="K70">
         <v>0.6666666666666666</v>
@@ -8245,16 +8245,16 @@
         <v>4</v>
       </c>
       <c r="M70">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N70">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="O70">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="P70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q70">
         <v>2</v>
@@ -8286,7 +8286,7 @@
         <v>4</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>45</v>
+        <v>379</v>
       </c>
       <c r="K71">
         <v>0.6666666666666666</v>
@@ -8295,16 +8295,16 @@
         <v>4</v>
       </c>
       <c r="M71">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N71">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="O71">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="P71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q71">
         <v>2</v>
@@ -8336,7 +8336,7 @@
         <v>4</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="K72">
         <v>0.6666666666666666</v>
@@ -8386,16 +8386,16 @@
         <v>4</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="K73">
-        <v>0.6666666666666666</v>
+        <v>0.6527196652719666</v>
       </c>
       <c r="L73">
-        <v>4</v>
+        <v>156</v>
       </c>
       <c r="M73">
-        <v>4</v>
+        <v>156</v>
       </c>
       <c r="N73">
         <v>1</v>
@@ -8407,7 +8407,7 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>2</v>
+        <v>83</v>
       </c>
     </row>
     <row r="74" spans="1:17">
@@ -8436,7 +8436,7 @@
         <v>21</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K74">
         <v>0.6453900709219859</v>
@@ -8486,7 +8486,7 @@
         <v>9</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="K75">
         <v>0.6428571428571429</v>
@@ -8536,7 +8536,7 @@
         <v>18</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="K76">
         <v>0.6363636363636364</v>
@@ -8586,7 +8586,7 @@
         <v>20</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="K77">
         <v>0.6363636363636364</v>
@@ -8636,7 +8636,7 @@
         <v>5</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K78">
         <v>0.6363636363636364</v>
@@ -8686,7 +8686,7 @@
         <v>5</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="K79">
         <v>0.6363636363636364</v>
@@ -8836,7 +8836,7 @@
         <v>5</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="K82">
         <v>0.6296296296296297</v>
@@ -8886,7 +8886,7 @@
         <v>5</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K83">
         <v>0.625</v>
@@ -8936,7 +8936,7 @@
         <v>5</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="K84">
         <v>0.625</v>
@@ -8986,7 +8986,7 @@
         <v>5</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="K85">
         <v>0.625</v>
@@ -9036,7 +9036,7 @@
         <v>5</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K86">
         <v>0.6153846153846154</v>
@@ -9136,7 +9136,7 @@
         <v>5</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K88">
         <v>0.6</v>
@@ -9336,7 +9336,7 @@
         <v>5</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="K92">
         <v>0.6</v>
@@ -9486,7 +9486,7 @@
         <v>21</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="K95">
         <v>0.5833333333333334</v>
@@ -9536,7 +9536,7 @@
         <v>16</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="K96">
         <v>0.5833333333333334</v>
@@ -9586,7 +9586,7 @@
         <v>16</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="K97">
         <v>0.574468085106383</v>
@@ -9686,7 +9686,7 @@
         <v>11</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="K99">
         <v>0.5714285714285714</v>
@@ -9736,7 +9736,7 @@
         <v>11</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="K100">
         <v>0.5714285714285714</v>
@@ -9786,7 +9786,7 @@
         <v>17</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="K101">
         <v>0.5714285714285714</v>
@@ -9836,7 +9836,7 @@
         <v>6</v>
       </c>
       <c r="J102" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="K102">
         <v>0.5714285714285714</v>
@@ -9886,7 +9886,7 @@
         <v>6</v>
       </c>
       <c r="J103" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="K103">
         <v>0.5714285714285714</v>
@@ -9936,7 +9936,7 @@
         <v>6</v>
       </c>
       <c r="J104" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="K104">
         <v>0.5714285714285714</v>
@@ -9986,7 +9986,7 @@
         <v>6</v>
       </c>
       <c r="J105" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="K105">
         <v>0.5652173913043478</v>
@@ -10036,7 +10036,7 @@
         <v>6</v>
       </c>
       <c r="J106" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="K106">
         <v>0.5625</v>
@@ -10186,28 +10186,28 @@
         <v>6</v>
       </c>
       <c r="J109" s="1" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="K109">
-        <v>0.5548780487804879</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="L109">
-        <v>182</v>
+        <v>12</v>
       </c>
       <c r="M109">
-        <v>194</v>
+        <v>13</v>
       </c>
       <c r="N109">
-        <v>0.9399999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="O109">
-        <v>0.06000000000000005</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P109" t="b">
         <v>1</v>
       </c>
       <c r="Q109">
-        <v>146</v>
+        <v>10</v>
       </c>
     </row>
     <row r="110" spans="1:17">
@@ -10236,7 +10236,7 @@
         <v>6</v>
       </c>
       <c r="J110" s="1" t="s">
-        <v>158</v>
+        <v>96</v>
       </c>
       <c r="K110">
         <v>0.5454545454545454</v>
@@ -10245,13 +10245,13 @@
         <v>12</v>
       </c>
       <c r="M110">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N110">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="O110">
-        <v>0.07999999999999996</v>
+        <v>0.14</v>
       </c>
       <c r="P110" t="b">
         <v>1</v>
@@ -10286,28 +10286,28 @@
         <v>6</v>
       </c>
       <c r="J111" s="1" t="s">
-        <v>96</v>
+        <v>405</v>
       </c>
       <c r="K111">
         <v>0.5454545454545454</v>
       </c>
       <c r="L111">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="M111">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="N111">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="O111">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="P111" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q111">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="112" spans="1:17">
@@ -10339,13 +10339,13 @@
         <v>406</v>
       </c>
       <c r="K112">
-        <v>0.5454545454545454</v>
+        <v>0.5428571428571428</v>
       </c>
       <c r="L112">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="M112">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="N112">
         <v>1</v>
@@ -10357,7 +10357,7 @@
         <v>0</v>
       </c>
       <c r="Q112">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="113" spans="1:17">
@@ -10389,13 +10389,13 @@
         <v>407</v>
       </c>
       <c r="K113">
-        <v>0.5428571428571428</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L113">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="M113">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="N113">
         <v>1</v>
@@ -10407,7 +10407,7 @@
         <v>0</v>
       </c>
       <c r="Q113">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="114" spans="1:17">
@@ -10439,13 +10439,13 @@
         <v>408</v>
       </c>
       <c r="K114">
-        <v>0.5384615384615384</v>
+        <v>0.5352941176470588</v>
       </c>
       <c r="L114">
-        <v>7</v>
+        <v>182</v>
       </c>
       <c r="M114">
-        <v>7</v>
+        <v>182</v>
       </c>
       <c r="N114">
         <v>1</v>
@@ -10457,7 +10457,7 @@
         <v>0</v>
       </c>
       <c r="Q114">
-        <v>6</v>
+        <v>158</v>
       </c>
     </row>
     <row r="115" spans="1:17">
@@ -10536,7 +10536,7 @@
         <v>14</v>
       </c>
       <c r="J116" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K116">
         <v>0.53125</v>
@@ -11386,7 +11386,7 @@
         <v>464</v>
       </c>
       <c r="J133" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K133">
         <v>0.4814814814814815</v>
@@ -11586,7 +11586,7 @@
         <v>9</v>
       </c>
       <c r="J137" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K137">
         <v>0.4551724137931035</v>
@@ -11636,7 +11636,7 @@
         <v>9</v>
       </c>
       <c r="J138" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K138">
         <v>0.4545454545454545</v>
@@ -11736,7 +11736,7 @@
         <v>36</v>
       </c>
       <c r="J140" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K140">
         <v>0.4523809523809524</v>
@@ -11786,7 +11786,7 @@
         <v>9</v>
       </c>
       <c r="J141" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K141">
         <v>0.45</v>
@@ -11886,7 +11886,7 @@
         <v>9</v>
       </c>
       <c r="J143" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K143">
         <v>0.4390243902439024</v>
@@ -11915,25 +11915,25 @@
         <v>149</v>
       </c>
       <c r="B144">
-        <v>0.0963855421686747</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="C144">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D144">
-        <v>164</v>
+        <v>12</v>
       </c>
       <c r="E144">
-        <v>0.95</v>
+        <v>0.83</v>
       </c>
       <c r="F144">
-        <v>0.05000000000000004</v>
+        <v>0.17</v>
       </c>
       <c r="G144" t="b">
         <v>1</v>
       </c>
       <c r="H144">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="J144" s="1" t="s">
         <v>140</v>
@@ -11965,25 +11965,25 @@
         <v>150</v>
       </c>
       <c r="B145">
-        <v>0.09523809523809523</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="C145">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D145">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E145">
-        <v>0.83</v>
+        <v>0.8</v>
       </c>
       <c r="F145">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="G145" t="b">
         <v>1</v>
       </c>
       <c r="H145">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="J145" s="1" t="s">
         <v>427</v>
@@ -12021,13 +12021,13 @@
         <v>1</v>
       </c>
       <c r="D146">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E146">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="F146">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="G146" t="b">
         <v>1</v>
@@ -12071,16 +12071,16 @@
         <v>1</v>
       </c>
       <c r="D147">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E147">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F147">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G147" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H147">
         <v>10</v>
@@ -12121,16 +12121,16 @@
         <v>1</v>
       </c>
       <c r="D148">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E148">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F148">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G148" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H148">
         <v>10</v>
@@ -12171,16 +12171,16 @@
         <v>1</v>
       </c>
       <c r="D149">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E149">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F149">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G149" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H149">
         <v>10</v>
@@ -12221,16 +12221,16 @@
         <v>1</v>
       </c>
       <c r="D150">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E150">
-        <v>0</v>
+        <v>0.88</v>
       </c>
       <c r="F150">
-        <v>1</v>
+        <v>0.12</v>
       </c>
       <c r="G150" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H150">
         <v>10</v>
@@ -12271,13 +12271,13 @@
         <v>1</v>
       </c>
       <c r="D151">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E151">
-        <v>0.88</v>
+        <v>0.5</v>
       </c>
       <c r="F151">
-        <v>0.12</v>
+        <v>0.5</v>
       </c>
       <c r="G151" t="b">
         <v>1</v>
@@ -12286,7 +12286,7 @@
         <v>10</v>
       </c>
       <c r="J151" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="K151">
         <v>0.4267015706806283</v>
@@ -12321,13 +12321,13 @@
         <v>1</v>
       </c>
       <c r="D152">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="E152">
-        <v>0.5</v>
+        <v>0.92</v>
       </c>
       <c r="F152">
-        <v>0.5</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G152" t="b">
         <v>1</v>
@@ -12371,16 +12371,16 @@
         <v>1</v>
       </c>
       <c r="D153">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E153">
-        <v>0.92</v>
+        <v>0</v>
       </c>
       <c r="F153">
-        <v>0.07999999999999996</v>
+        <v>1</v>
       </c>
       <c r="G153" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H153">
         <v>10</v>
@@ -12415,13 +12415,13 @@
         <v>159</v>
       </c>
       <c r="B154">
-        <v>0.09090909090909091</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="C154">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D154">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E154">
         <v>0</v>
@@ -12433,7 +12433,7 @@
         <v>0</v>
       </c>
       <c r="H154">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="J154" s="1" t="s">
         <v>435</v>
@@ -12465,13 +12465,13 @@
         <v>160</v>
       </c>
       <c r="B155">
-        <v>0.08695652173913043</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="C155">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D155">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E155">
         <v>0</v>
@@ -12483,10 +12483,10 @@
         <v>0</v>
       </c>
       <c r="H155">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="J155" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K155">
         <v>0.4117647058823529</v>
@@ -12521,22 +12521,22 @@
         <v>1</v>
       </c>
       <c r="D156">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E156">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="F156">
-        <v>1</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G156" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H156">
         <v>11</v>
       </c>
       <c r="J156" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K156">
         <v>0.4117647058823529</v>
@@ -12571,13 +12571,13 @@
         <v>1</v>
       </c>
       <c r="D157">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E157">
-        <v>0.9</v>
+        <v>0.88</v>
       </c>
       <c r="F157">
-        <v>0.09999999999999998</v>
+        <v>0.12</v>
       </c>
       <c r="G157" t="b">
         <v>1</v>
@@ -12621,16 +12621,16 @@
         <v>1</v>
       </c>
       <c r="D158">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E158">
-        <v>0.88</v>
+        <v>0</v>
       </c>
       <c r="F158">
-        <v>0.12</v>
+        <v>1</v>
       </c>
       <c r="G158" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H158">
         <v>11</v>
@@ -12665,13 +12665,13 @@
         <v>164</v>
       </c>
       <c r="B159">
-        <v>0.08333333333333333</v>
+        <v>0.08108108108108109</v>
       </c>
       <c r="C159">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D159">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E159">
         <v>0</v>
@@ -12683,7 +12683,7 @@
         <v>0</v>
       </c>
       <c r="H159">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="J159" s="1" t="s">
         <v>438</v>
@@ -12715,7 +12715,7 @@
         <v>165</v>
       </c>
       <c r="B160">
-        <v>0.08108108108108109</v>
+        <v>0.07894736842105263</v>
       </c>
       <c r="C160">
         <v>3</v>
@@ -12733,7 +12733,7 @@
         <v>0</v>
       </c>
       <c r="H160">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J160" s="1" t="s">
         <v>439</v>
@@ -12765,13 +12765,13 @@
         <v>166</v>
       </c>
       <c r="B161">
-        <v>0.07894736842105263</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="C161">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D161">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E161">
         <v>0</v>
@@ -12783,7 +12783,7 @@
         <v>0</v>
       </c>
       <c r="H161">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="J161" s="1" t="s">
         <v>440</v>
@@ -12821,16 +12821,16 @@
         <v>1</v>
       </c>
       <c r="D162">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E162">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F162">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G162" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H162">
         <v>12</v>
@@ -12921,16 +12921,16 @@
         <v>1</v>
       </c>
       <c r="D164">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E164">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F164">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G164" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H164">
         <v>12</v>
@@ -13015,13 +13015,13 @@
         <v>171</v>
       </c>
       <c r="B166">
-        <v>0.07692307692307693</v>
+        <v>0.075</v>
       </c>
       <c r="C166">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D166">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E166">
         <v>0</v>
@@ -13033,7 +13033,7 @@
         <v>0</v>
       </c>
       <c r="H166">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="J166" s="1" t="s">
         <v>63</v>
@@ -13065,25 +13065,25 @@
         <v>172</v>
       </c>
       <c r="B167">
-        <v>0.0759493670886076</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="C167">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D167">
-        <v>194</v>
+        <v>2</v>
       </c>
       <c r="E167">
-        <v>0.9399999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="F167">
-        <v>0.06000000000000005</v>
+        <v>0.5</v>
       </c>
       <c r="G167" t="b">
         <v>1</v>
       </c>
       <c r="H167">
-        <v>146</v>
+        <v>13</v>
       </c>
       <c r="J167" s="1" t="s">
         <v>442</v>
@@ -13115,25 +13115,25 @@
         <v>173</v>
       </c>
       <c r="B168">
-        <v>0.075</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="C168">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D168">
         <v>3</v>
       </c>
       <c r="E168">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F168">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G168" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H168">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="J168" s="1" t="s">
         <v>443</v>
@@ -13171,16 +13171,16 @@
         <v>1</v>
       </c>
       <c r="D169">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E169">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F169">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G169" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H169">
         <v>13</v>
@@ -13215,13 +13215,13 @@
         <v>175</v>
       </c>
       <c r="B170">
-        <v>0.07142857142857142</v>
+        <v>0.06896551724137931</v>
       </c>
       <c r="C170">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D170">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E170">
         <v>0.67</v>
@@ -13233,7 +13233,7 @@
         <v>1</v>
       </c>
       <c r="H170">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="J170" s="1" t="s">
         <v>445</v>
@@ -13265,13 +13265,13 @@
         <v>176</v>
       </c>
       <c r="B171">
-        <v>0.07142857142857142</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C171">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D171">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E171">
         <v>0</v>
@@ -13283,10 +13283,10 @@
         <v>0</v>
       </c>
       <c r="H171">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="J171" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K171">
         <v>0.3888888888888889</v>
@@ -13315,25 +13315,25 @@
         <v>177</v>
       </c>
       <c r="B172">
-        <v>0.06896551724137931</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C172">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D172">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E172">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="F172">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G172" t="b">
         <v>1</v>
       </c>
       <c r="H172">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="J172" s="1" t="s">
         <v>446</v>
@@ -13368,10 +13368,10 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="C173">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D173">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E173">
         <v>0</v>
@@ -13383,7 +13383,7 @@
         <v>0</v>
       </c>
       <c r="H173">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="J173" s="1" t="s">
         <v>447</v>
@@ -13521,13 +13521,13 @@
         <v>1</v>
       </c>
       <c r="D176">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E176">
-        <v>0.5</v>
+        <v>0.93</v>
       </c>
       <c r="F176">
-        <v>0.5</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G176" t="b">
         <v>1</v>
@@ -13571,16 +13571,16 @@
         <v>1</v>
       </c>
       <c r="D177">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E177">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F177">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G177" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H177">
         <v>14</v>
@@ -13621,13 +13621,13 @@
         <v>1</v>
       </c>
       <c r="D178">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E178">
-        <v>0.93</v>
+        <v>0.83</v>
       </c>
       <c r="F178">
-        <v>0.06999999999999995</v>
+        <v>0.17</v>
       </c>
       <c r="G178" t="b">
         <v>1</v>
@@ -13671,16 +13671,16 @@
         <v>1</v>
       </c>
       <c r="D179">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E179">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F179">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G179" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H179">
         <v>14</v>
@@ -13715,25 +13715,25 @@
         <v>185</v>
       </c>
       <c r="B180">
-        <v>0.06666666666666667</v>
+        <v>0.0625</v>
       </c>
       <c r="C180">
         <v>1</v>
       </c>
       <c r="D180">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E180">
-        <v>0.83</v>
+        <v>0.89</v>
       </c>
       <c r="F180">
-        <v>0.17</v>
+        <v>0.11</v>
       </c>
       <c r="G180" t="b">
         <v>1</v>
       </c>
       <c r="H180">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J180" s="1" t="s">
         <v>452</v>
@@ -13765,25 +13765,25 @@
         <v>186</v>
       </c>
       <c r="B181">
-        <v>0.06666666666666667</v>
+        <v>0.0625</v>
       </c>
       <c r="C181">
         <v>1</v>
       </c>
       <c r="D181">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E181">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F181">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G181" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H181">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J181" s="1" t="s">
         <v>453</v>
@@ -13821,16 +13821,16 @@
         <v>1</v>
       </c>
       <c r="D182">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E182">
-        <v>0.89</v>
+        <v>0</v>
       </c>
       <c r="F182">
-        <v>0.11</v>
+        <v>1</v>
       </c>
       <c r="G182" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H182">
         <v>15</v>
@@ -13865,13 +13865,13 @@
         <v>188</v>
       </c>
       <c r="B183">
-        <v>0.0625</v>
+        <v>0.06060606060606061</v>
       </c>
       <c r="C183">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D183">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E183">
         <v>0.5</v>
@@ -13883,7 +13883,7 @@
         <v>1</v>
       </c>
       <c r="H183">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="J183" s="1" t="s">
         <v>455</v>
@@ -13915,25 +13915,25 @@
         <v>189</v>
       </c>
       <c r="B184">
-        <v>0.0625</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="C184">
         <v>1</v>
       </c>
       <c r="D184">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E184">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F184">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G184" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H184">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J184" s="1" t="s">
         <v>456</v>
@@ -13965,25 +13965,25 @@
         <v>190</v>
       </c>
       <c r="B185">
-        <v>0.06060606060606061</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="C185">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D185">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E185">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F185">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G185" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H185">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="J185" s="1" t="s">
         <v>457</v>
@@ -14021,16 +14021,16 @@
         <v>1</v>
       </c>
       <c r="D186">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E186">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F186">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G186" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H186">
         <v>16</v>
@@ -14071,16 +14071,16 @@
         <v>1</v>
       </c>
       <c r="D187">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E187">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F187">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G187" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H187">
         <v>16</v>
@@ -14121,16 +14121,16 @@
         <v>1</v>
       </c>
       <c r="D188">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E188">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F188">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G188" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H188">
         <v>16</v>
@@ -14171,13 +14171,13 @@
         <v>1</v>
       </c>
       <c r="D189">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E189">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="F189">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="G189" t="b">
         <v>1</v>
@@ -14221,16 +14221,16 @@
         <v>1</v>
       </c>
       <c r="D190">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E190">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F190">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G190" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H190">
         <v>16</v>
@@ -14271,13 +14271,13 @@
         <v>1</v>
       </c>
       <c r="D191">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E191">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="F191">
-        <v>0.33</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G191" t="b">
         <v>1</v>
@@ -14315,7 +14315,7 @@
         <v>197</v>
       </c>
       <c r="B192">
-        <v>0.05882352941176471</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="C192">
         <v>1</v>
@@ -14333,7 +14333,7 @@
         <v>0</v>
       </c>
       <c r="H192">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J192" s="1" t="s">
         <v>462</v>
@@ -14365,25 +14365,25 @@
         <v>198</v>
       </c>
       <c r="B193">
-        <v>0.05882352941176471</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="C193">
         <v>1</v>
       </c>
       <c r="D193">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="E193">
-        <v>0.9</v>
+        <v>0.98</v>
       </c>
       <c r="F193">
-        <v>0.09999999999999998</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G193" t="b">
         <v>1</v>
       </c>
       <c r="H193">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J193" s="1" t="s">
         <v>463</v>
@@ -14418,22 +14418,22 @@
         <v>0.05555555555555555</v>
       </c>
       <c r="C194">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D194">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E194">
-        <v>0</v>
+        <v>0.71</v>
       </c>
       <c r="F194">
-        <v>1</v>
+        <v>0.29</v>
       </c>
       <c r="G194" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H194">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="J194" s="1" t="s">
         <v>464</v>
@@ -14471,22 +14471,22 @@
         <v>1</v>
       </c>
       <c r="D195">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="E195">
-        <v>0.98</v>
+        <v>0</v>
       </c>
       <c r="F195">
-        <v>0.02000000000000002</v>
+        <v>1</v>
       </c>
       <c r="G195" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H195">
         <v>17</v>
       </c>
       <c r="J195" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K195">
         <v>0.36</v>
@@ -14515,25 +14515,25 @@
         <v>201</v>
       </c>
       <c r="B196">
-        <v>0.05555555555555555</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="C196">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D196">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E196">
-        <v>0.71</v>
+        <v>0</v>
       </c>
       <c r="F196">
-        <v>0.29</v>
+        <v>1</v>
       </c>
       <c r="G196" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H196">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="J196" s="1" t="s">
         <v>143</v>
@@ -14565,7 +14565,7 @@
         <v>202</v>
       </c>
       <c r="B197">
-        <v>0.05555555555555555</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="C197">
         <v>1</v>
@@ -14583,7 +14583,7 @@
         <v>0</v>
       </c>
       <c r="H197">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J197" s="1" t="s">
         <v>147</v>
@@ -14621,16 +14621,16 @@
         <v>1</v>
       </c>
       <c r="D198">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E198">
-        <v>0</v>
+        <v>0.89</v>
       </c>
       <c r="F198">
-        <v>1</v>
+        <v>0.11</v>
       </c>
       <c r="G198" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H198">
         <v>18</v>
@@ -14671,16 +14671,16 @@
         <v>1</v>
       </c>
       <c r="D199">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E199">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F199">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G199" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H199">
         <v>18</v>
@@ -14715,28 +14715,28 @@
         <v>205</v>
       </c>
       <c r="B200">
-        <v>0.05263157894736842</v>
+        <v>0.05194805194805195</v>
       </c>
       <c r="C200">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D200">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E200">
-        <v>0.89</v>
+        <v>0</v>
       </c>
       <c r="F200">
-        <v>0.11</v>
+        <v>1</v>
       </c>
       <c r="G200" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H200">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="J200" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K200">
         <v>0.3478260869565217</v>
@@ -14765,28 +14765,28 @@
         <v>206</v>
       </c>
       <c r="B201">
-        <v>0.05263157894736842</v>
+        <v>0.05</v>
       </c>
       <c r="C201">
         <v>1</v>
       </c>
       <c r="D201">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E201">
-        <v>0.67</v>
+        <v>0.8</v>
       </c>
       <c r="F201">
-        <v>0.33</v>
+        <v>0.2</v>
       </c>
       <c r="G201" t="b">
         <v>1</v>
       </c>
       <c r="H201">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J201" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K201">
         <v>0.3448275862068966</v>
@@ -14815,28 +14815,28 @@
         <v>207</v>
       </c>
       <c r="B202">
-        <v>0.05194805194805195</v>
+        <v>0.05</v>
       </c>
       <c r="C202">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D202">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E202">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F202">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G202" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H202">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="J202" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K202">
         <v>0.3409090909090909</v>
@@ -14871,13 +14871,13 @@
         <v>1</v>
       </c>
       <c r="D203">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E203">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="F203">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="G203" t="b">
         <v>1</v>
@@ -14921,13 +14921,13 @@
         <v>1</v>
       </c>
       <c r="D204">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E204">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="F204">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="G204" t="b">
         <v>1</v>
@@ -14971,16 +14971,16 @@
         <v>1</v>
       </c>
       <c r="D205">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E205">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F205">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G205" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H205">
         <v>19</v>
@@ -15015,25 +15015,25 @@
         <v>211</v>
       </c>
       <c r="B206">
-        <v>0.05</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="C206">
         <v>1</v>
       </c>
       <c r="D206">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E206">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F206">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G206" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H206">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J206" s="1" t="s">
         <v>470</v>
@@ -15065,25 +15065,25 @@
         <v>212</v>
       </c>
       <c r="B207">
-        <v>0.05</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="C207">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D207">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="E207">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="F207">
-        <v>1</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G207" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H207">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="J207" s="1" t="s">
         <v>471</v>
@@ -15121,16 +15121,16 @@
         <v>1</v>
       </c>
       <c r="D208">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E208">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F208">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G208" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H208">
         <v>20</v>
@@ -15168,22 +15168,22 @@
         <v>0.04761904761904762</v>
       </c>
       <c r="C209">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D209">
-        <v>30</v>
+        <v>108</v>
       </c>
       <c r="E209">
-        <v>0.93</v>
+        <v>0.99</v>
       </c>
       <c r="F209">
-        <v>0.06999999999999995</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G209" t="b">
         <v>1</v>
       </c>
       <c r="H209">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="J209" s="1" t="s">
         <v>473</v>
@@ -15215,25 +15215,25 @@
         <v>215</v>
       </c>
       <c r="B210">
-        <v>0.04761904761904762</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="C210">
         <v>1</v>
       </c>
       <c r="D210">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E210">
-        <v>0.75</v>
+        <v>0.83</v>
       </c>
       <c r="F210">
-        <v>0.25</v>
+        <v>0.17</v>
       </c>
       <c r="G210" t="b">
         <v>1</v>
       </c>
       <c r="H210">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J210" s="1" t="s">
         <v>474</v>
@@ -15265,25 +15265,25 @@
         <v>216</v>
       </c>
       <c r="B211">
-        <v>0.04761904761904762</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="C211">
         <v>1</v>
       </c>
       <c r="D211">
-        <v>108</v>
+        <v>3</v>
       </c>
       <c r="E211">
-        <v>0.99</v>
+        <v>0.67</v>
       </c>
       <c r="F211">
-        <v>0.01000000000000001</v>
+        <v>0.33</v>
       </c>
       <c r="G211" t="b">
         <v>1</v>
       </c>
       <c r="H211">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J211" s="1" t="s">
         <v>475</v>
@@ -15321,13 +15321,13 @@
         <v>1</v>
       </c>
       <c r="D212">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E212">
-        <v>0.83</v>
+        <v>0.75</v>
       </c>
       <c r="F212">
-        <v>0.17</v>
+        <v>0.25</v>
       </c>
       <c r="G212" t="b">
         <v>1</v>
@@ -15365,7 +15365,7 @@
         <v>218</v>
       </c>
       <c r="B213">
-        <v>0.04545454545454546</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="C213">
         <v>1</v>
@@ -15383,7 +15383,7 @@
         <v>1</v>
       </c>
       <c r="H213">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J213" s="1" t="s">
         <v>477</v>
@@ -15415,25 +15415,25 @@
         <v>219</v>
       </c>
       <c r="B214">
-        <v>0.04545454545454546</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="C214">
         <v>1</v>
       </c>
       <c r="D214">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E214">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="F214">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="G214" t="b">
         <v>1</v>
       </c>
       <c r="H214">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J214" s="1" t="s">
         <v>478</v>
@@ -15465,25 +15465,25 @@
         <v>220</v>
       </c>
       <c r="B215">
-        <v>0.04347826086956522</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="C215">
         <v>1</v>
       </c>
       <c r="D215">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E215">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="F215">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="G215" t="b">
         <v>1</v>
       </c>
       <c r="H215">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J215" s="1" t="s">
         <v>479</v>
@@ -15515,25 +15515,25 @@
         <v>221</v>
       </c>
       <c r="B216">
-        <v>0.04347826086956522</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="C216">
         <v>1</v>
       </c>
       <c r="D216">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="E216">
-        <v>0.67</v>
+        <v>0.95</v>
       </c>
       <c r="F216">
-        <v>0.33</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G216" t="b">
         <v>1</v>
       </c>
       <c r="H216">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J216" s="1" t="s">
         <v>480</v>
@@ -15621,7 +15621,7 @@
         <v>1</v>
       </c>
       <c r="D218">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E218">
         <v>0.95</v>
@@ -15665,25 +15665,25 @@
         <v>224</v>
       </c>
       <c r="B219">
-        <v>0.04166666666666666</v>
+        <v>0.04</v>
       </c>
       <c r="C219">
         <v>1</v>
       </c>
       <c r="D219">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E219">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="F219">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="G219" t="b">
         <v>1</v>
       </c>
       <c r="H219">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J219" s="1" t="s">
         <v>483</v>
@@ -15715,28 +15715,28 @@
         <v>225</v>
       </c>
       <c r="B220">
-        <v>0.04166666666666666</v>
+        <v>0.0392156862745098</v>
       </c>
       <c r="C220">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D220">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="E220">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="F220">
-        <v>0.05000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G220" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H220">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="J220" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K220">
         <v>0.3333333333333333</v>
@@ -15765,25 +15765,25 @@
         <v>226</v>
       </c>
       <c r="B221">
-        <v>0.04</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="C221">
         <v>1</v>
       </c>
       <c r="D221">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E221">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="F221">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="G221" t="b">
         <v>1</v>
       </c>
       <c r="H221">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J221" s="1" t="s">
         <v>484</v>
@@ -15815,25 +15815,25 @@
         <v>227</v>
       </c>
       <c r="B222">
-        <v>0.0392156862745098</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="C222">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D222">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E222">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F222">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G222" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H222">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="J222" s="1" t="s">
         <v>485</v>
@@ -15871,13 +15871,13 @@
         <v>1</v>
       </c>
       <c r="D223">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E223">
-        <v>0.83</v>
+        <v>0.75</v>
       </c>
       <c r="F223">
-        <v>0.17</v>
+        <v>0.25</v>
       </c>
       <c r="G223" t="b">
         <v>1</v>
@@ -15918,22 +15918,22 @@
         <v>0.03846153846153846</v>
       </c>
       <c r="C224">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D224">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E224">
-        <v>0.75</v>
+        <v>0.85</v>
       </c>
       <c r="F224">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="G224" t="b">
         <v>1</v>
       </c>
       <c r="H224">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="J224" s="1" t="s">
         <v>487</v>
@@ -15965,25 +15965,25 @@
         <v>230</v>
       </c>
       <c r="B225">
-        <v>0.03846153846153846</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="C225">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D225">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E225">
-        <v>0.75</v>
+        <v>0.33</v>
       </c>
       <c r="F225">
-        <v>0.25</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="G225" t="b">
         <v>1</v>
       </c>
       <c r="H225">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="J225" s="1" t="s">
         <v>488</v>
@@ -16015,25 +16015,25 @@
         <v>231</v>
       </c>
       <c r="B226">
-        <v>0.03846153846153846</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="C226">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D226">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E226">
-        <v>0.85</v>
+        <v>0.88</v>
       </c>
       <c r="F226">
-        <v>0.15</v>
+        <v>0.12</v>
       </c>
       <c r="G226" t="b">
         <v>1</v>
       </c>
       <c r="H226">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="J226" s="1" t="s">
         <v>489</v>
@@ -16068,22 +16068,22 @@
         <v>0.03703703703703703</v>
       </c>
       <c r="C227">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D227">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E227">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="F227">
-        <v>0.6699999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="G227" t="b">
         <v>1</v>
       </c>
       <c r="H227">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="J227" s="1" t="s">
         <v>490</v>
@@ -16121,13 +16121,13 @@
         <v>1</v>
       </c>
       <c r="D228">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E228">
-        <v>0.88</v>
+        <v>0.93</v>
       </c>
       <c r="F228">
-        <v>0.12</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G228" t="b">
         <v>1</v>
@@ -16165,25 +16165,25 @@
         <v>234</v>
       </c>
       <c r="B229">
-        <v>0.03703703703703703</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="C229">
         <v>1</v>
       </c>
       <c r="D229">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E229">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F229">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G229" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H229">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J229" s="1" t="s">
         <v>492</v>
@@ -16215,25 +16215,25 @@
         <v>235</v>
       </c>
       <c r="B230">
-        <v>0.03703703703703703</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="C230">
         <v>1</v>
       </c>
       <c r="D230">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E230">
-        <v>0.93</v>
+        <v>0.5</v>
       </c>
       <c r="F230">
-        <v>0.06999999999999995</v>
+        <v>0.5</v>
       </c>
       <c r="G230" t="b">
         <v>1</v>
       </c>
       <c r="H230">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J230" s="1" t="s">
         <v>76</v>
@@ -16315,25 +16315,25 @@
         <v>237</v>
       </c>
       <c r="B232">
-        <v>0.03571428571428571</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="C232">
         <v>1</v>
       </c>
       <c r="D232">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E232">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="F232">
-        <v>0.5</v>
+        <v>0.14</v>
       </c>
       <c r="G232" t="b">
         <v>1</v>
       </c>
       <c r="H232">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J232" s="1" t="s">
         <v>494</v>
@@ -16365,25 +16365,25 @@
         <v>238</v>
       </c>
       <c r="B233">
-        <v>0.03571428571428571</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="C233">
         <v>1</v>
       </c>
       <c r="D233">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E233">
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="F233">
-        <v>1</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G233" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H233">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J233" s="1" t="s">
         <v>495</v>
@@ -16415,25 +16415,25 @@
         <v>239</v>
       </c>
       <c r="B234">
-        <v>0.03448275862068965</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="C234">
         <v>1</v>
       </c>
       <c r="D234">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E234">
-        <v>0.86</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F234">
-        <v>0.14</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G234" t="b">
         <v>1</v>
       </c>
       <c r="H234">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J234" s="1" t="s">
         <v>496</v>
@@ -16471,16 +16471,16 @@
         <v>1</v>
       </c>
       <c r="D235">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E235">
-        <v>0.92</v>
+        <v>0</v>
       </c>
       <c r="F235">
-        <v>0.07999999999999996</v>
+        <v>1</v>
       </c>
       <c r="G235" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H235">
         <v>29</v>
@@ -16515,25 +16515,25 @@
         <v>241</v>
       </c>
       <c r="B236">
-        <v>0.03333333333333333</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="C236">
         <v>1</v>
       </c>
       <c r="D236">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E236">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F236">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G236" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H236">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J236" s="1" t="s">
         <v>498</v>
@@ -16565,25 +16565,25 @@
         <v>242</v>
       </c>
       <c r="B237">
-        <v>0.03333333333333333</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="C237">
         <v>1</v>
       </c>
       <c r="D237">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E237">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F237">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G237" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H237">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J237" s="1" t="s">
         <v>499</v>
@@ -16621,22 +16621,22 @@
         <v>1</v>
       </c>
       <c r="D238">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="E238">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="F238">
-        <v>1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G238" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H238">
         <v>30</v>
       </c>
       <c r="J238" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K238">
         <v>0.3166666666666667</v>
@@ -16665,25 +16665,25 @@
         <v>244</v>
       </c>
       <c r="B239">
-        <v>0.03225806451612903</v>
+        <v>0.03125</v>
       </c>
       <c r="C239">
         <v>1</v>
       </c>
       <c r="D239">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E239">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="F239">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="G239" t="b">
         <v>1</v>
       </c>
       <c r="H239">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J239" s="1" t="s">
         <v>500</v>
@@ -16715,25 +16715,25 @@
         <v>245</v>
       </c>
       <c r="B240">
-        <v>0.03225806451612903</v>
+        <v>0.03125</v>
       </c>
       <c r="C240">
         <v>1</v>
       </c>
       <c r="D240">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="E240">
-        <v>0.97</v>
+        <v>0.75</v>
       </c>
       <c r="F240">
-        <v>0.03000000000000003</v>
+        <v>0.25</v>
       </c>
       <c r="G240" t="b">
         <v>1</v>
       </c>
       <c r="H240">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J240" s="1" t="s">
         <v>501</v>
@@ -16771,16 +16771,16 @@
         <v>1</v>
       </c>
       <c r="D241">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E241">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F241">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G241" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H241">
         <v>31</v>
@@ -16815,28 +16815,28 @@
         <v>247</v>
       </c>
       <c r="B242">
-        <v>0.03125</v>
+        <v>0.03067484662576687</v>
       </c>
       <c r="C242">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D242">
-        <v>4</v>
+        <v>137</v>
       </c>
       <c r="E242">
-        <v>0.75</v>
+        <v>0.96</v>
       </c>
       <c r="F242">
-        <v>0.25</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G242" t="b">
         <v>1</v>
       </c>
       <c r="H242">
-        <v>31</v>
+        <v>158</v>
       </c>
       <c r="J242" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K242">
         <v>0.3076923076923077</v>
@@ -16865,25 +16865,25 @@
         <v>248</v>
       </c>
       <c r="B243">
-        <v>0.03125</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="C243">
         <v>1</v>
       </c>
       <c r="D243">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E243">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F243">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G243" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H243">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J243" s="1" t="s">
         <v>502</v>
@@ -16915,25 +16915,25 @@
         <v>249</v>
       </c>
       <c r="B244">
-        <v>0.03067484662576687</v>
+        <v>0.02884615384615385</v>
       </c>
       <c r="C244">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D244">
-        <v>137</v>
+        <v>18</v>
       </c>
       <c r="E244">
-        <v>0.96</v>
+        <v>0.83</v>
       </c>
       <c r="F244">
-        <v>0.04000000000000004</v>
+        <v>0.17</v>
       </c>
       <c r="G244" t="b">
         <v>1</v>
       </c>
       <c r="H244">
-        <v>158</v>
+        <v>101</v>
       </c>
       <c r="J244" s="1" t="s">
         <v>503</v>
@@ -16965,25 +16965,25 @@
         <v>250</v>
       </c>
       <c r="B245">
-        <v>0.0303030303030303</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="C245">
         <v>1</v>
       </c>
       <c r="D245">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E245">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="F245">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="G245" t="b">
         <v>1</v>
       </c>
       <c r="H245">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J245" s="1" t="s">
         <v>504</v>
@@ -17015,25 +17015,25 @@
         <v>251</v>
       </c>
       <c r="B246">
-        <v>0.02884615384615385</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="C246">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D246">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="E246">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="F246">
-        <v>0.17</v>
+        <v>1</v>
       </c>
       <c r="G246" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H246">
-        <v>101</v>
+        <v>34</v>
       </c>
       <c r="J246" s="1" t="s">
         <v>505</v>
@@ -17065,25 +17065,25 @@
         <v>252</v>
       </c>
       <c r="B247">
-        <v>0.02857142857142857</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="C247">
         <v>1</v>
       </c>
       <c r="D247">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E247">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F247">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G247" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H247">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J247" s="1" t="s">
         <v>506</v>
@@ -17115,25 +17115,25 @@
         <v>253</v>
       </c>
       <c r="B248">
-        <v>0.02857142857142857</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="C248">
         <v>1</v>
       </c>
       <c r="D248">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E248">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F248">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G248" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H248">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J248" s="1" t="s">
         <v>507</v>
@@ -17165,25 +17165,25 @@
         <v>254</v>
       </c>
       <c r="B249">
-        <v>0.02777777777777778</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="C249">
         <v>1</v>
       </c>
       <c r="D249">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E249">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F249">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G249" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H249">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J249" s="1" t="s">
         <v>508</v>
@@ -17215,25 +17215,25 @@
         <v>255</v>
       </c>
       <c r="B250">
-        <v>0.02702702702702703</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="C250">
         <v>1</v>
       </c>
       <c r="D250">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E250">
-        <v>0.75</v>
+        <v>0.83</v>
       </c>
       <c r="F250">
-        <v>0.25</v>
+        <v>0.17</v>
       </c>
       <c r="G250" t="b">
         <v>1</v>
       </c>
       <c r="H250">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J250" s="1" t="s">
         <v>509</v>
@@ -17271,13 +17271,13 @@
         <v>1</v>
       </c>
       <c r="D251">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E251">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="F251">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G251" t="b">
         <v>1</v>
@@ -17321,13 +17321,13 @@
         <v>1</v>
       </c>
       <c r="D252">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E252">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="F252">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="G252" t="b">
         <v>1</v>
@@ -17365,25 +17365,25 @@
         <v>258</v>
       </c>
       <c r="B253">
-        <v>0.02631578947368421</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="C253">
         <v>1</v>
       </c>
       <c r="D253">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E253">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F253">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G253" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H253">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J253" s="1" t="s">
         <v>512</v>
@@ -17415,25 +17415,25 @@
         <v>259</v>
       </c>
       <c r="B254">
-        <v>0.02631578947368421</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="C254">
         <v>1</v>
       </c>
       <c r="D254">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E254">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F254">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G254" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H254">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J254" s="1" t="s">
         <v>513</v>
@@ -17486,7 +17486,7 @@
         <v>38</v>
       </c>
       <c r="J255" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K255">
         <v>0.2926829268292683</v>
@@ -17515,25 +17515,25 @@
         <v>261</v>
       </c>
       <c r="B256">
-        <v>0.02564102564102564</v>
+        <v>0.025</v>
       </c>
       <c r="C256">
         <v>1</v>
       </c>
       <c r="D256">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E256">
-        <v>0</v>
+        <v>0.89</v>
       </c>
       <c r="F256">
-        <v>1</v>
+        <v>0.11</v>
       </c>
       <c r="G256" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H256">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J256" s="1" t="s">
         <v>514</v>
@@ -17565,28 +17565,28 @@
         <v>262</v>
       </c>
       <c r="B257">
-        <v>0.02564102564102564</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="C257">
         <v>1</v>
       </c>
       <c r="D257">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E257">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F257">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G257" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H257">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J257" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K257">
         <v>0.2857142857142857</v>
@@ -17615,25 +17615,25 @@
         <v>263</v>
       </c>
       <c r="B258">
-        <v>0.025</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="C258">
         <v>1</v>
       </c>
       <c r="D258">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E258">
-        <v>0.89</v>
+        <v>0.75</v>
       </c>
       <c r="F258">
-        <v>0.11</v>
+        <v>0.25</v>
       </c>
       <c r="G258" t="b">
         <v>1</v>
       </c>
       <c r="H258">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J258" s="1" t="s">
         <v>515</v>
@@ -17665,25 +17665,25 @@
         <v>264</v>
       </c>
       <c r="B259">
-        <v>0.02439024390243903</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="C259">
         <v>1</v>
       </c>
       <c r="D259">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E259">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="F259">
-        <v>0.2</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G259" t="b">
         <v>1</v>
       </c>
       <c r="H259">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J259" s="1" t="s">
         <v>516</v>
@@ -17771,16 +17771,16 @@
         <v>1</v>
       </c>
       <c r="D261">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="E261">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="F261">
-        <v>0.05000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G261" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H261">
         <v>41</v>
@@ -17815,25 +17815,25 @@
         <v>267</v>
       </c>
       <c r="B262">
-        <v>0.02380952380952381</v>
+        <v>0.02272727272727273</v>
       </c>
       <c r="C262">
         <v>1</v>
       </c>
       <c r="D262">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E262">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="F262">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="G262" t="b">
         <v>1</v>
       </c>
       <c r="H262">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J262" s="1" t="s">
         <v>519</v>
@@ -17865,25 +17865,25 @@
         <v>268</v>
       </c>
       <c r="B263">
-        <v>0.02380952380952381</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="C263">
         <v>1</v>
       </c>
       <c r="D263">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E263">
-        <v>0</v>
+        <v>0.89</v>
       </c>
       <c r="F263">
-        <v>1</v>
+        <v>0.11</v>
       </c>
       <c r="G263" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H263">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J263" s="1" t="s">
         <v>520</v>
@@ -17915,25 +17915,25 @@
         <v>269</v>
       </c>
       <c r="B264">
-        <v>0.02272727272727273</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="C264">
         <v>1</v>
       </c>
       <c r="D264">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E264">
-        <v>0.8</v>
+        <v>0.86</v>
       </c>
       <c r="F264">
-        <v>0.2</v>
+        <v>0.14</v>
       </c>
       <c r="G264" t="b">
         <v>1</v>
       </c>
       <c r="H264">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J264" s="1" t="s">
         <v>521</v>
@@ -17965,25 +17965,25 @@
         <v>270</v>
       </c>
       <c r="B265">
-        <v>0.02222222222222222</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="C265">
         <v>1</v>
       </c>
       <c r="D265">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E265">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="F265">
-        <v>0.11</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G265" t="b">
         <v>1</v>
       </c>
       <c r="H265">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J265" s="1" t="s">
         <v>522</v>
@@ -18018,22 +18018,22 @@
         <v>0.02127659574468085</v>
       </c>
       <c r="C266">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D266">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E266">
-        <v>0.86</v>
+        <v>0.78</v>
       </c>
       <c r="F266">
-        <v>0.14</v>
+        <v>0.22</v>
       </c>
       <c r="G266" t="b">
         <v>1</v>
       </c>
       <c r="H266">
-        <v>46</v>
+        <v>92</v>
       </c>
       <c r="J266" s="1" t="s">
         <v>523</v>
@@ -18065,25 +18065,25 @@
         <v>272</v>
       </c>
       <c r="B267">
-        <v>0.02127659574468085</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="C267">
         <v>1</v>
       </c>
       <c r="D267">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E267">
-        <v>0.9</v>
+        <v>0.67</v>
       </c>
       <c r="F267">
-        <v>0.09999999999999998</v>
+        <v>0.33</v>
       </c>
       <c r="G267" t="b">
         <v>1</v>
       </c>
       <c r="H267">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J267" s="1" t="s">
         <v>524</v>
@@ -18115,25 +18115,25 @@
         <v>273</v>
       </c>
       <c r="B268">
-        <v>0.02127659574468085</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="C268">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D268">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E268">
-        <v>0.78</v>
+        <v>0.75</v>
       </c>
       <c r="F268">
-        <v>0.22</v>
+        <v>0.25</v>
       </c>
       <c r="G268" t="b">
         <v>1</v>
       </c>
       <c r="H268">
-        <v>92</v>
+        <v>47</v>
       </c>
       <c r="J268" s="1" t="s">
         <v>525</v>
@@ -18165,25 +18165,25 @@
         <v>274</v>
       </c>
       <c r="B269">
-        <v>0.02083333333333333</v>
+        <v>0.02040816326530612</v>
       </c>
       <c r="C269">
         <v>1</v>
       </c>
       <c r="D269">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="E269">
-        <v>0.67</v>
+        <v>0.98</v>
       </c>
       <c r="F269">
-        <v>0.33</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G269" t="b">
         <v>1</v>
       </c>
       <c r="H269">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J269" s="1" t="s">
         <v>526</v>
@@ -18215,25 +18215,25 @@
         <v>275</v>
       </c>
       <c r="B270">
-        <v>0.02083333333333333</v>
+        <v>0.02040816326530612</v>
       </c>
       <c r="C270">
         <v>1</v>
       </c>
       <c r="D270">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E270">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="F270">
-        <v>0.25</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G270" t="b">
         <v>1</v>
       </c>
       <c r="H270">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J270" s="1" t="s">
         <v>527</v>
@@ -18265,25 +18265,25 @@
         <v>276</v>
       </c>
       <c r="B271">
-        <v>0.02040816326530612</v>
+        <v>0.0198019801980198</v>
       </c>
       <c r="C271">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D271">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="E271">
-        <v>0.98</v>
+        <v>0.8</v>
       </c>
       <c r="F271">
-        <v>0.02000000000000002</v>
+        <v>0.2</v>
       </c>
       <c r="G271" t="b">
         <v>1</v>
       </c>
       <c r="H271">
-        <v>48</v>
+        <v>99</v>
       </c>
       <c r="J271" s="1" t="s">
         <v>528</v>
@@ -18315,25 +18315,25 @@
         <v>277</v>
       </c>
       <c r="B272">
-        <v>0.02040816326530612</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="C272">
         <v>1</v>
       </c>
       <c r="D272">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="E272">
-        <v>0.92</v>
+        <v>0.99</v>
       </c>
       <c r="F272">
-        <v>0.07999999999999996</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G272" t="b">
         <v>1</v>
       </c>
       <c r="H272">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J272" s="1" t="s">
         <v>529</v>
@@ -18365,25 +18365,25 @@
         <v>278</v>
       </c>
       <c r="B273">
-        <v>0.0198019801980198</v>
+        <v>0.01923076923076923</v>
       </c>
       <c r="C273">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D273">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E273">
-        <v>0.8</v>
+        <v>0.86</v>
       </c>
       <c r="F273">
-        <v>0.2</v>
+        <v>0.14</v>
       </c>
       <c r="G273" t="b">
         <v>1</v>
       </c>
       <c r="H273">
-        <v>99</v>
+        <v>51</v>
       </c>
       <c r="J273" s="1" t="s">
         <v>530</v>
@@ -18415,25 +18415,25 @@
         <v>279</v>
       </c>
       <c r="B274">
-        <v>0.0196078431372549</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="C274">
         <v>1</v>
       </c>
       <c r="D274">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="E274">
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
       <c r="F274">
-        <v>0.01000000000000001</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G274" t="b">
         <v>1</v>
       </c>
       <c r="H274">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="J274" s="1" t="s">
         <v>531</v>
@@ -18465,25 +18465,25 @@
         <v>280</v>
       </c>
       <c r="B275">
-        <v>0.01923076923076923</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="C275">
         <v>1</v>
       </c>
       <c r="D275">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E275">
-        <v>0.86</v>
+        <v>0.67</v>
       </c>
       <c r="F275">
-        <v>0.14</v>
+        <v>0.33</v>
       </c>
       <c r="G275" t="b">
         <v>1</v>
       </c>
       <c r="H275">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="J275" s="1" t="s">
         <v>532</v>
@@ -18515,25 +18515,25 @@
         <v>281</v>
       </c>
       <c r="B276">
-        <v>0.01818181818181818</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="C276">
         <v>1</v>
       </c>
       <c r="D276">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="E276">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="F276">
-        <v>0.05000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G276" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H276">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J276" s="1" t="s">
         <v>95</v>
@@ -18565,25 +18565,25 @@
         <v>282</v>
       </c>
       <c r="B277">
-        <v>0.01818181818181818</v>
+        <v>0.01724137931034483</v>
       </c>
       <c r="C277">
         <v>1</v>
       </c>
       <c r="D277">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E277">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="F277">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G277" t="b">
         <v>1</v>
       </c>
       <c r="H277">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="J277" s="1" t="s">
         <v>533</v>
@@ -18615,25 +18615,25 @@
         <v>283</v>
       </c>
       <c r="B278">
-        <v>0.01785714285714286</v>
+        <v>0.01724137931034483</v>
       </c>
       <c r="C278">
         <v>1</v>
       </c>
       <c r="D278">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E278">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="F278">
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="G278" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H278">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J278" s="1" t="s">
         <v>534</v>
@@ -18671,13 +18671,13 @@
         <v>1</v>
       </c>
       <c r="D279">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="E279">
-        <v>0.5</v>
+        <v>0.95</v>
       </c>
       <c r="F279">
-        <v>0.5</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G279" t="b">
         <v>1</v>
@@ -18721,13 +18721,13 @@
         <v>1</v>
       </c>
       <c r="D280">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E280">
-        <v>0.83</v>
+        <v>0.5</v>
       </c>
       <c r="F280">
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
       <c r="G280" t="b">
         <v>1</v>
@@ -18771,13 +18771,13 @@
         <v>1</v>
       </c>
       <c r="D281">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E281">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="F281">
-        <v>0.05000000000000004</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G281" t="b">
         <v>1</v>
@@ -18815,25 +18815,25 @@
         <v>287</v>
       </c>
       <c r="B282">
-        <v>0.01724137931034483</v>
+        <v>0.01612903225806452</v>
       </c>
       <c r="C282">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D282">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="E282">
-        <v>0.5</v>
+        <v>0.88</v>
       </c>
       <c r="F282">
-        <v>0.5</v>
+        <v>0.12</v>
       </c>
       <c r="G282" t="b">
         <v>1</v>
       </c>
       <c r="H282">
-        <v>57</v>
+        <v>122</v>
       </c>
       <c r="J282" s="1" t="s">
         <v>538</v>
@@ -18865,25 +18865,25 @@
         <v>288</v>
       </c>
       <c r="B283">
-        <v>0.01724137931034483</v>
+        <v>0.01587301587301587</v>
       </c>
       <c r="C283">
         <v>1</v>
       </c>
       <c r="D283">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E283">
-        <v>0.9</v>
+        <v>0.75</v>
       </c>
       <c r="F283">
-        <v>0.09999999999999998</v>
+        <v>0.25</v>
       </c>
       <c r="G283" t="b">
         <v>1</v>
       </c>
       <c r="H283">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="J283" s="1" t="s">
         <v>539</v>
@@ -18915,25 +18915,25 @@
         <v>289</v>
       </c>
       <c r="B284">
-        <v>0.01612903225806452</v>
+        <v>0.015625</v>
       </c>
       <c r="C284">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D284">
         <v>16</v>
       </c>
       <c r="E284">
-        <v>0.88</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F284">
-        <v>0.12</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G284" t="b">
         <v>1</v>
       </c>
       <c r="H284">
-        <v>122</v>
+        <v>63</v>
       </c>
       <c r="J284" s="1" t="s">
         <v>540</v>
@@ -18965,25 +18965,25 @@
         <v>290</v>
       </c>
       <c r="B285">
-        <v>0.01587301587301587</v>
+        <v>0.01388888888888889</v>
       </c>
       <c r="C285">
         <v>1</v>
       </c>
       <c r="D285">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E285">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="F285">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="G285" t="b">
         <v>1</v>
       </c>
       <c r="H285">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="J285" s="1" t="s">
         <v>541</v>
@@ -19015,25 +19015,25 @@
         <v>291</v>
       </c>
       <c r="B286">
-        <v>0.015625</v>
+        <v>0.0125</v>
       </c>
       <c r="C286">
         <v>1</v>
       </c>
       <c r="D286">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E286">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F286">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G286" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H286">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="J286" s="1" t="s">
         <v>542</v>
@@ -19065,25 +19065,25 @@
         <v>292</v>
       </c>
       <c r="B287">
-        <v>0.01388888888888889</v>
+        <v>0.01212121212121212</v>
       </c>
       <c r="C287">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D287">
-        <v>3</v>
+        <v>92</v>
       </c>
       <c r="E287">
-        <v>0.67</v>
+        <v>0.96</v>
       </c>
       <c r="F287">
-        <v>0.33</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G287" t="b">
         <v>1</v>
       </c>
       <c r="H287">
-        <v>71</v>
+        <v>326</v>
       </c>
       <c r="J287" s="1" t="s">
         <v>543</v>
@@ -19115,25 +19115,25 @@
         <v>293</v>
       </c>
       <c r="B288">
-        <v>0.0125</v>
+        <v>0.01204819277108434</v>
       </c>
       <c r="C288">
         <v>1</v>
       </c>
       <c r="D288">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E288">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="F288">
-        <v>1</v>
+        <v>0.14</v>
       </c>
       <c r="G288" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H288">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="J288" s="1" t="s">
         <v>544</v>
@@ -19165,25 +19165,25 @@
         <v>294</v>
       </c>
       <c r="B289">
-        <v>0.01212121212121212</v>
+        <v>0.0119047619047619</v>
       </c>
       <c r="C289">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D289">
-        <v>92</v>
+        <v>14</v>
       </c>
       <c r="E289">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="F289">
-        <v>0.04000000000000004</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G289" t="b">
         <v>1</v>
       </c>
       <c r="H289">
-        <v>326</v>
+        <v>83</v>
       </c>
       <c r="J289" s="1" t="s">
         <v>545</v>
@@ -19215,7 +19215,7 @@
         <v>295</v>
       </c>
       <c r="B290">
-        <v>0.01204819277108434</v>
+        <v>0.01162790697674419</v>
       </c>
       <c r="C290">
         <v>1</v>
@@ -19233,7 +19233,7 @@
         <v>1</v>
       </c>
       <c r="H290">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="J290" s="1" t="s">
         <v>546</v>
@@ -19265,25 +19265,25 @@
         <v>296</v>
       </c>
       <c r="B291">
-        <v>0.0119047619047619</v>
+        <v>0.01075268817204301</v>
       </c>
       <c r="C291">
         <v>1</v>
       </c>
       <c r="D291">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="E291">
-        <v>0.93</v>
+        <v>0.67</v>
       </c>
       <c r="F291">
-        <v>0.06999999999999995</v>
+        <v>0.33</v>
       </c>
       <c r="G291" t="b">
         <v>1</v>
       </c>
       <c r="H291">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="J291" s="1" t="s">
         <v>547</v>
@@ -19315,25 +19315,25 @@
         <v>297</v>
       </c>
       <c r="B292">
-        <v>0.01162790697674419</v>
+        <v>0.01063829787234043</v>
       </c>
       <c r="C292">
         <v>1</v>
       </c>
       <c r="D292">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E292">
-        <v>0.86</v>
+        <v>0.83</v>
       </c>
       <c r="F292">
-        <v>0.14</v>
+        <v>0.17</v>
       </c>
       <c r="G292" t="b">
         <v>1</v>
       </c>
       <c r="H292">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="J292" s="1" t="s">
         <v>548</v>
@@ -19365,25 +19365,25 @@
         <v>298</v>
       </c>
       <c r="B293">
-        <v>0.01075268817204301</v>
+        <v>0.01052631578947368</v>
       </c>
       <c r="C293">
         <v>1</v>
       </c>
       <c r="D293">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="E293">
-        <v>0.67</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F293">
-        <v>0.33</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G293" t="b">
         <v>1</v>
       </c>
       <c r="H293">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J293" s="1" t="s">
         <v>549</v>
@@ -19415,25 +19415,25 @@
         <v>299</v>
       </c>
       <c r="B294">
-        <v>0.01063829787234043</v>
+        <v>0.01020408163265306</v>
       </c>
       <c r="C294">
         <v>1</v>
       </c>
       <c r="D294">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E294">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="F294">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="G294" t="b">
         <v>1</v>
       </c>
       <c r="H294">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="J294" s="1" t="s">
         <v>550</v>
@@ -19465,25 +19465,25 @@
         <v>300</v>
       </c>
       <c r="B295">
-        <v>0.01052631578947368</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="C295">
         <v>1</v>
       </c>
       <c r="D295">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E295">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="F295">
-        <v>0.06000000000000005</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G295" t="b">
         <v>1</v>
       </c>
       <c r="H295">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="J295" s="1" t="s">
         <v>551</v>
@@ -19515,25 +19515,25 @@
         <v>301</v>
       </c>
       <c r="B296">
-        <v>0.01020408163265306</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="C296">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D296">
-        <v>3</v>
+        <v>62</v>
       </c>
       <c r="E296">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="F296">
-        <v>0.33</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G296" t="b">
         <v>1</v>
       </c>
       <c r="H296">
-        <v>97</v>
+        <v>588</v>
       </c>
       <c r="J296" s="1" t="s">
         <v>552</v>
@@ -19571,13 +19571,13 @@
         <v>1</v>
       </c>
       <c r="D297">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="E297">
-        <v>0.93</v>
+        <v>0.67</v>
       </c>
       <c r="F297">
-        <v>0.06999999999999995</v>
+        <v>0.33</v>
       </c>
       <c r="G297" t="b">
         <v>1</v>
@@ -19615,25 +19615,25 @@
         <v>303</v>
       </c>
       <c r="B298">
-        <v>0.0101010101010101</v>
+        <v>0.009615384615384616</v>
       </c>
       <c r="C298">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D298">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="E298">
-        <v>0.9</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F298">
-        <v>0.09999999999999998</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G298" t="b">
         <v>1</v>
       </c>
       <c r="H298">
-        <v>588</v>
+        <v>206</v>
       </c>
       <c r="J298" s="1" t="s">
         <v>554</v>
@@ -19665,25 +19665,25 @@
         <v>304</v>
       </c>
       <c r="B299">
-        <v>0.0101010101010101</v>
+        <v>0.00949367088607595</v>
       </c>
       <c r="C299">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D299">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="E299">
-        <v>0.67</v>
+        <v>0.92</v>
       </c>
       <c r="F299">
-        <v>0.33</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G299" t="b">
         <v>1</v>
       </c>
       <c r="H299">
-        <v>98</v>
+        <v>313</v>
       </c>
       <c r="J299" s="1" t="s">
         <v>555</v>
@@ -19715,25 +19715,25 @@
         <v>305</v>
       </c>
       <c r="B300">
-        <v>0.009615384615384616</v>
+        <v>0.008849557522123894</v>
       </c>
       <c r="C300">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D300">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E300">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="F300">
-        <v>0.06000000000000005</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G300" t="b">
         <v>1</v>
       </c>
       <c r="H300">
-        <v>206</v>
+        <v>112</v>
       </c>
       <c r="J300" s="1" t="s">
         <v>556</v>
@@ -19765,13 +19765,13 @@
         <v>306</v>
       </c>
       <c r="B301">
-        <v>0.00949367088607595</v>
+        <v>0.008620689655172414</v>
       </c>
       <c r="C301">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D301">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="E301">
         <v>0.92</v>
@@ -19783,7 +19783,7 @@
         <v>1</v>
       </c>
       <c r="H301">
-        <v>313</v>
+        <v>115</v>
       </c>
       <c r="J301" s="1" t="s">
         <v>557</v>
@@ -19815,25 +19815,25 @@
         <v>307</v>
       </c>
       <c r="B302">
-        <v>0.008849557522123894</v>
+        <v>0.008547008547008548</v>
       </c>
       <c r="C302">
         <v>1</v>
       </c>
       <c r="D302">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E302">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F302">
-        <v>0.05000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G302" t="b">
         <v>1</v>
       </c>
       <c r="H302">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="J302" s="1" t="s">
         <v>558</v>
@@ -19865,25 +19865,25 @@
         <v>308</v>
       </c>
       <c r="B303">
-        <v>0.008620689655172414</v>
+        <v>0.007936507936507936</v>
       </c>
       <c r="C303">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D303">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E303">
-        <v>0.92</v>
+        <v>0</v>
       </c>
       <c r="F303">
-        <v>0.07999999999999996</v>
+        <v>1</v>
       </c>
       <c r="G303" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H303">
-        <v>115</v>
+        <v>250</v>
       </c>
       <c r="J303" s="1" t="s">
         <v>559</v>
@@ -19915,25 +19915,25 @@
         <v>309</v>
       </c>
       <c r="B304">
-        <v>0.008547008547008548</v>
+        <v>0.007874015748031496</v>
       </c>
       <c r="C304">
         <v>1</v>
       </c>
       <c r="D304">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="E304">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="F304">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G304" t="b">
         <v>1</v>
       </c>
       <c r="H304">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="J304" s="1" t="s">
         <v>560</v>
@@ -19965,25 +19965,25 @@
         <v>310</v>
       </c>
       <c r="B305">
-        <v>0.007936507936507936</v>
+        <v>0.0078125</v>
       </c>
       <c r="C305">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D305">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="E305">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="F305">
-        <v>1</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G305" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H305">
-        <v>250</v>
+        <v>127</v>
       </c>
       <c r="J305" s="1" t="s">
         <v>561</v>
@@ -20015,28 +20015,28 @@
         <v>311</v>
       </c>
       <c r="B306">
-        <v>0.007874015748031496</v>
+        <v>0.007462686567164179</v>
       </c>
       <c r="C306">
         <v>1</v>
       </c>
       <c r="D306">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="E306">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="F306">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G306" t="b">
         <v>1</v>
       </c>
       <c r="H306">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="J306" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K306">
         <v>0.2631578947368421</v>
@@ -20065,25 +20065,25 @@
         <v>312</v>
       </c>
       <c r="B307">
-        <v>0.0078125</v>
+        <v>0.007462686567164179</v>
       </c>
       <c r="C307">
         <v>1</v>
       </c>
       <c r="D307">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E307">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="F307">
-        <v>0.05000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G307" t="b">
         <v>1</v>
       </c>
       <c r="H307">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="J307" s="1" t="s">
         <v>562</v>
@@ -20121,13 +20121,13 @@
         <v>1</v>
       </c>
       <c r="D308">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="E308">
-        <v>0.96</v>
+        <v>0.75</v>
       </c>
       <c r="F308">
-        <v>0.04000000000000004</v>
+        <v>0.25</v>
       </c>
       <c r="G308" t="b">
         <v>1</v>
@@ -20165,28 +20165,28 @@
         <v>314</v>
       </c>
       <c r="B309">
-        <v>0.007462686567164179</v>
+        <v>0.006711409395973154</v>
       </c>
       <c r="C309">
         <v>1</v>
       </c>
       <c r="D309">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="E309">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="F309">
-        <v>0.03000000000000003</v>
+        <v>1</v>
       </c>
       <c r="G309" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H309">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="J309" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="K309">
         <v>0.2597402597402597</v>
@@ -20215,25 +20215,25 @@
         <v>315</v>
       </c>
       <c r="B310">
-        <v>0.007462686567164179</v>
+        <v>0.006349206349206349</v>
       </c>
       <c r="C310">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D310">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="E310">
-        <v>0.75</v>
+        <v>0.79</v>
       </c>
       <c r="F310">
-        <v>0.25</v>
+        <v>0.21</v>
       </c>
       <c r="G310" t="b">
         <v>1</v>
       </c>
       <c r="H310">
-        <v>133</v>
+        <v>939</v>
       </c>
       <c r="J310" s="1" t="s">
         <v>564</v>
@@ -20265,28 +20265,28 @@
         <v>316</v>
       </c>
       <c r="B311">
-        <v>0.006711409395973154</v>
+        <v>0.006195786864931847</v>
       </c>
       <c r="C311">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D311">
-        <v>1</v>
+        <v>65</v>
       </c>
       <c r="E311">
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="F311">
-        <v>1</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G311" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H311">
-        <v>148</v>
+        <v>802</v>
       </c>
       <c r="J311" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K311">
         <v>0.25</v>
@@ -20315,25 +20315,25 @@
         <v>317</v>
       </c>
       <c r="B312">
-        <v>0.006349206349206349</v>
+        <v>0.006097560975609756</v>
       </c>
       <c r="C312">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D312">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="E312">
-        <v>0.79</v>
+        <v>0.98</v>
       </c>
       <c r="F312">
-        <v>0.21</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G312" t="b">
         <v>1</v>
       </c>
       <c r="H312">
-        <v>939</v>
+        <v>163</v>
       </c>
       <c r="J312" s="1" t="s">
         <v>565</v>
@@ -20365,25 +20365,25 @@
         <v>318</v>
       </c>
       <c r="B313">
-        <v>0.006195786864931847</v>
+        <v>0.006024096385542169</v>
       </c>
       <c r="C313">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D313">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="E313">
-        <v>0.92</v>
+        <v>0</v>
       </c>
       <c r="F313">
-        <v>0.07999999999999996</v>
+        <v>1</v>
       </c>
       <c r="G313" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H313">
-        <v>802</v>
+        <v>165</v>
       </c>
       <c r="J313" s="1" t="s">
         <v>566</v>
@@ -20415,25 +20415,25 @@
         <v>319</v>
       </c>
       <c r="B314">
-        <v>0.006097560975609756</v>
+        <v>0.005988023952095809</v>
       </c>
       <c r="C314">
         <v>1</v>
       </c>
       <c r="D314">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="E314">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="F314">
-        <v>0.02000000000000002</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G314" t="b">
         <v>1</v>
       </c>
       <c r="H314">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="J314" s="1" t="s">
         <v>567</v>
@@ -20465,25 +20465,25 @@
         <v>320</v>
       </c>
       <c r="B315">
-        <v>0.006024096385542169</v>
+        <v>0.005449591280653951</v>
       </c>
       <c r="C315">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D315">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="E315">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="F315">
-        <v>1</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G315" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H315">
-        <v>165</v>
+        <v>365</v>
       </c>
       <c r="J315" s="1" t="s">
         <v>568</v>
@@ -20515,25 +20515,25 @@
         <v>321</v>
       </c>
       <c r="B316">
-        <v>0.005988023952095809</v>
+        <v>0.005319148936170213</v>
       </c>
       <c r="C316">
         <v>1</v>
       </c>
       <c r="D316">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E316">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="F316">
-        <v>0.05000000000000004</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G316" t="b">
         <v>1</v>
       </c>
       <c r="H316">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c r="J316" s="1" t="s">
         <v>569</v>
@@ -20565,25 +20565,25 @@
         <v>322</v>
       </c>
       <c r="B317">
-        <v>0.005449591280653951</v>
+        <v>0.005235602094240838</v>
       </c>
       <c r="C317">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D317">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="E317">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="F317">
-        <v>0.04000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G317" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H317">
-        <v>365</v>
+        <v>190</v>
       </c>
       <c r="J317" s="1" t="s">
         <v>570</v>
@@ -20615,13 +20615,13 @@
         <v>323</v>
       </c>
       <c r="B318">
-        <v>0.005319148936170213</v>
+        <v>0.004643962848297213</v>
       </c>
       <c r="C318">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D318">
-        <v>28</v>
+        <v>214</v>
       </c>
       <c r="E318">
         <v>0.96</v>
@@ -20633,7 +20633,7 @@
         <v>1</v>
       </c>
       <c r="H318">
-        <v>187</v>
+        <v>1929</v>
       </c>
       <c r="J318" s="1" t="s">
         <v>571</v>
@@ -20665,25 +20665,25 @@
         <v>324</v>
       </c>
       <c r="B319">
-        <v>0.005235602094240838</v>
+        <v>0.004545454545454545</v>
       </c>
       <c r="C319">
         <v>1</v>
       </c>
       <c r="D319">
-        <v>1</v>
+        <v>164</v>
       </c>
       <c r="E319">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="F319">
-        <v>1</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G319" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H319">
-        <v>190</v>
+        <v>219</v>
       </c>
       <c r="J319" s="1" t="s">
         <v>572</v>
@@ -20715,25 +20715,25 @@
         <v>325</v>
       </c>
       <c r="B320">
-        <v>0.004643962848297213</v>
+        <v>0.003703703703703704</v>
       </c>
       <c r="C320">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D320">
-        <v>214</v>
+        <v>94</v>
       </c>
       <c r="E320">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="F320">
-        <v>0.04000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G320" t="b">
         <v>1</v>
       </c>
       <c r="H320">
-        <v>1929</v>
+        <v>807</v>
       </c>
       <c r="J320" s="1" t="s">
         <v>573</v>
@@ -20765,25 +20765,25 @@
         <v>326</v>
       </c>
       <c r="B321">
-        <v>0.004545454545454545</v>
+        <v>0.003626473254759746</v>
       </c>
       <c r="C321">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D321">
-        <v>164</v>
+        <v>62</v>
       </c>
       <c r="E321">
-        <v>0.99</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F321">
-        <v>0.01000000000000001</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G321" t="b">
         <v>1</v>
       </c>
       <c r="H321">
-        <v>219</v>
+        <v>1099</v>
       </c>
       <c r="J321" s="1" t="s">
         <v>574</v>
@@ -20815,13 +20815,13 @@
         <v>327</v>
       </c>
       <c r="B322">
-        <v>0.003703703703703704</v>
+        <v>0.003412969283276451</v>
       </c>
       <c r="C322">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D322">
-        <v>94</v>
+        <v>35</v>
       </c>
       <c r="E322">
         <v>0.97</v>
@@ -20833,7 +20833,7 @@
         <v>1</v>
       </c>
       <c r="H322">
-        <v>807</v>
+        <v>292</v>
       </c>
       <c r="J322" s="1" t="s">
         <v>575</v>
@@ -20865,25 +20865,25 @@
         <v>328</v>
       </c>
       <c r="B323">
-        <v>0.003626473254759746</v>
+        <v>0.002865329512893983</v>
       </c>
       <c r="C323">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D323">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="E323">
-        <v>0.9399999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="F323">
-        <v>0.06000000000000005</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G323" t="b">
         <v>1</v>
       </c>
       <c r="H323">
-        <v>1099</v>
+        <v>348</v>
       </c>
       <c r="J323" s="1" t="s">
         <v>576</v>
@@ -20915,13 +20915,13 @@
         <v>329</v>
       </c>
       <c r="B324">
-        <v>0.003412969283276451</v>
+        <v>0.002831858407079646</v>
       </c>
       <c r="C324">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D324">
-        <v>35</v>
+        <v>290</v>
       </c>
       <c r="E324">
         <v>0.97</v>
@@ -20933,7 +20933,7 @@
         <v>1</v>
       </c>
       <c r="H324">
-        <v>292</v>
+        <v>2817</v>
       </c>
       <c r="J324" s="1" t="s">
         <v>577</v>
@@ -20965,25 +20965,25 @@
         <v>330</v>
       </c>
       <c r="B325">
-        <v>0.002865329512893983</v>
+        <v>0.002680965147453083</v>
       </c>
       <c r="C325">
         <v>1</v>
       </c>
       <c r="D325">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E325">
-        <v>0.92</v>
+        <v>0</v>
       </c>
       <c r="F325">
-        <v>0.07999999999999996</v>
+        <v>1</v>
       </c>
       <c r="G325" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H325">
-        <v>348</v>
+        <v>372</v>
       </c>
       <c r="J325" s="1" t="s">
         <v>578</v>
@@ -21015,25 +21015,25 @@
         <v>331</v>
       </c>
       <c r="B326">
-        <v>0.002831858407079646</v>
+        <v>0.002484472049689441</v>
       </c>
       <c r="C326">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D326">
-        <v>290</v>
+        <v>91</v>
       </c>
       <c r="E326">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="F326">
-        <v>0.03000000000000003</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G326" t="b">
         <v>1</v>
       </c>
       <c r="H326">
-        <v>2817</v>
+        <v>803</v>
       </c>
       <c r="J326" s="1" t="s">
         <v>579</v>
@@ -21065,25 +21065,25 @@
         <v>332</v>
       </c>
       <c r="B327">
-        <v>0.002680965147453083</v>
+        <v>0.002294329727958047</v>
       </c>
       <c r="C327">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D327">
-        <v>1</v>
+        <v>157</v>
       </c>
       <c r="E327">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="F327">
-        <v>1</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G327" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H327">
-        <v>372</v>
+        <v>3044</v>
       </c>
       <c r="J327" s="1" t="s">
         <v>580</v>
@@ -21115,25 +21115,25 @@
         <v>333</v>
       </c>
       <c r="B328">
-        <v>0.002484472049689441</v>
+        <v>0.001893939393939394</v>
       </c>
       <c r="C328">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D328">
-        <v>91</v>
+        <v>18</v>
       </c>
       <c r="E328">
-        <v>0.98</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F328">
-        <v>0.02000000000000002</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G328" t="b">
         <v>1</v>
       </c>
       <c r="H328">
-        <v>803</v>
+        <v>527</v>
       </c>
       <c r="J328" s="1" t="s">
         <v>581</v>
@@ -21161,30 +21161,6 @@
       </c>
     </row>
     <row r="329" spans="1:17">
-      <c r="A329" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="B329">
-        <v>0.002294329727958047</v>
-      </c>
-      <c r="C329">
-        <v>7</v>
-      </c>
-      <c r="D329">
-        <v>157</v>
-      </c>
-      <c r="E329">
-        <v>0.96</v>
-      </c>
-      <c r="F329">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="G329" t="b">
-        <v>1</v>
-      </c>
-      <c r="H329">
-        <v>3044</v>
-      </c>
       <c r="J329" s="1" t="s">
         <v>582</v>
       </c>
@@ -21211,30 +21187,6 @@
       </c>
     </row>
     <row r="330" spans="1:17">
-      <c r="A330" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="B330">
-        <v>0.001893939393939394</v>
-      </c>
-      <c r="C330">
-        <v>1</v>
-      </c>
-      <c r="D330">
-        <v>18</v>
-      </c>
-      <c r="E330">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="F330">
-        <v>0.06000000000000005</v>
-      </c>
-      <c r="G330" t="b">
-        <v>1</v>
-      </c>
-      <c r="H330">
-        <v>527</v>
-      </c>
       <c r="J330" s="1" t="s">
         <v>583</v>
       </c>
@@ -21652,7 +21604,7 @@
     </row>
     <row r="346" spans="10:17">
       <c r="J346" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="K346">
         <v>0.2383177570093458</v>
@@ -22822,7 +22774,7 @@
     </row>
     <row r="391" spans="10:17">
       <c r="J391" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="K391">
         <v>0.21256038647343</v>
@@ -22848,7 +22800,7 @@
     </row>
     <row r="392" spans="10:17">
       <c r="J392" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K392">
         <v>0.2121212121212121</v>
@@ -23030,7 +22982,7 @@
     </row>
     <row r="399" spans="10:17">
       <c r="J399" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="K399">
         <v>0.2025316455696203</v>
@@ -23160,7 +23112,7 @@
     </row>
     <row r="404" spans="10:17">
       <c r="J404" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K404">
         <v>0.2</v>
@@ -23628,7 +23580,7 @@
     </row>
     <row r="422" spans="10:17">
       <c r="J422" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K422">
         <v>0.1923076923076923</v>
@@ -23654,7 +23606,7 @@
     </row>
     <row r="423" spans="10:17">
       <c r="J423" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K423">
         <v>0.1923076923076923</v>
@@ -23888,7 +23840,7 @@
     </row>
     <row r="432" spans="10:17">
       <c r="J432" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="K432">
         <v>0.1864406779661017</v>
@@ -24304,7 +24256,7 @@
     </row>
     <row r="448" spans="10:17">
       <c r="J448" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K448">
         <v>0.180327868852459</v>
@@ -24356,7 +24308,7 @@
     </row>
     <row r="450" spans="10:17">
       <c r="J450" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="K450">
         <v>0.1790123456790123</v>
@@ -24460,7 +24412,7 @@
     </row>
     <row r="454" spans="10:17">
       <c r="J454" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K454">
         <v>0.1764705882352941</v>
@@ -24590,7 +24542,7 @@
     </row>
     <row r="459" spans="10:17">
       <c r="J459" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K459">
         <v>0.1739130434782609</v>
@@ -24694,7 +24646,7 @@
     </row>
     <row r="463" spans="10:17">
       <c r="J463" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K463">
         <v>0.1702127659574468</v>
@@ -24850,7 +24802,7 @@
     </row>
     <row r="469" spans="10:17">
       <c r="J469" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K469">
         <v>0.1666666666666667</v>
@@ -26540,7 +26492,7 @@
     </row>
     <row r="534" spans="10:17">
       <c r="J534" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K534">
         <v>0.1636363636363636</v>
@@ -26670,7 +26622,7 @@
     </row>
     <row r="539" spans="10:17">
       <c r="J539" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="K539">
         <v>0.1582278481012658</v>
@@ -26722,7 +26674,7 @@
     </row>
     <row r="541" spans="10:17">
       <c r="J541" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K541">
         <v>0.1578947368421053</v>
@@ -26982,7 +26934,7 @@
     </row>
     <row r="551" spans="10:17">
       <c r="J551" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K551">
         <v>0.1538461538461539</v>
@@ -27138,7 +27090,7 @@
     </row>
     <row r="557" spans="10:17">
       <c r="J557" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="K557">
         <v>0.1531531531531531</v>
@@ -27164,7 +27116,7 @@
     </row>
     <row r="558" spans="10:17">
       <c r="J558" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="K558">
         <v>0.1515151515151515</v>
@@ -29400,7 +29352,7 @@
     </row>
     <row r="644" spans="10:17">
       <c r="J644" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="K644">
         <v>0.1363636363636364</v>
@@ -29452,7 +29404,7 @@
     </row>
     <row r="646" spans="10:17">
       <c r="J646" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K646">
         <v>0.1363636363636364</v>
@@ -29504,7 +29456,7 @@
     </row>
     <row r="648" spans="10:17">
       <c r="J648" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="K648">
         <v>0.1354166666666667</v>
@@ -29608,7 +29560,7 @@
     </row>
     <row r="652" spans="10:17">
       <c r="J652" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="K652">
         <v>0.1333333333333333</v>
@@ -29738,7 +29690,7 @@
     </row>
     <row r="657" spans="10:17">
       <c r="J657" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K657">
         <v>0.1304347826086956</v>
@@ -29816,7 +29768,7 @@
     </row>
     <row r="660" spans="10:17">
       <c r="J660" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="K660">
         <v>0.1301369863013699</v>
@@ -29868,7 +29820,7 @@
     </row>
     <row r="662" spans="10:17">
       <c r="J662" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K662">
         <v>0.1293103448275862</v>
@@ -29894,7 +29846,7 @@
     </row>
     <row r="663" spans="10:17">
       <c r="J663" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K663">
         <v>0.1290322580645161</v>
@@ -29920,7 +29872,7 @@
     </row>
     <row r="664" spans="10:17">
       <c r="J664" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K664">
         <v>0.1282051282051282</v>
@@ -29972,7 +29924,7 @@
     </row>
     <row r="666" spans="10:17">
       <c r="J666" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="K666">
         <v>0.1278195488721804</v>
@@ -29998,7 +29950,7 @@
     </row>
     <row r="667" spans="10:17">
       <c r="J667" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="K667">
         <v>0.1261682242990654</v>
@@ -30206,7 +30158,7 @@
     </row>
     <row r="675" spans="10:17">
       <c r="J675" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K675">
         <v>0.125</v>
@@ -31532,7 +31484,7 @@
     </row>
     <row r="726" spans="10:17">
       <c r="J726" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="K726">
         <v>0.1234042553191489</v>
@@ -31714,7 +31666,7 @@
     </row>
     <row r="733" spans="10:17">
       <c r="J733" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K733">
         <v>0.119047619047619</v>
@@ -31740,7 +31692,7 @@
     </row>
     <row r="734" spans="10:17">
       <c r="J734" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="K734">
         <v>0.1183574879227053</v>
@@ -32026,7 +31978,7 @@
     </row>
     <row r="745" spans="10:17">
       <c r="J745" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="K745">
         <v>0.1171171171171171</v>
@@ -32052,7 +32004,7 @@
     </row>
     <row r="746" spans="10:17">
       <c r="J746" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K746">
         <v>0.1153846153846154</v>
@@ -32156,7 +32108,7 @@
     </row>
     <row r="750" spans="10:17">
       <c r="J750" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K750">
         <v>0.1153846153846154</v>
@@ -32208,7 +32160,7 @@
     </row>
     <row r="752" spans="10:17">
       <c r="J752" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K752">
         <v>0.1153846153846154</v>
@@ -32624,7 +32576,7 @@
     </row>
     <row r="768" spans="10:17">
       <c r="J768" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="K768">
         <v>0.1111111111111111</v>
@@ -33144,7 +33096,7 @@
     </row>
     <row r="788" spans="10:17">
       <c r="J788" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K788">
         <v>0.1111111111111111</v>
@@ -33898,7 +33850,7 @@
     </row>
     <row r="817" spans="10:17">
       <c r="J817" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K817">
         <v>0.1071428571428571</v>
@@ -33924,7 +33876,7 @@
     </row>
     <row r="818" spans="10:17">
       <c r="J818" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="K818">
         <v>0.1071428571428571</v>
@@ -34002,7 +33954,7 @@
     </row>
     <row r="821" spans="10:17">
       <c r="J821" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="K821">
         <v>0.1052631578947368</v>
@@ -34288,7 +34240,7 @@
     </row>
     <row r="832" spans="10:17">
       <c r="J832" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="K832">
         <v>0.1042944785276074</v>
@@ -34366,7 +34318,7 @@
     </row>
     <row r="835" spans="10:17">
       <c r="J835" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="K835">
         <v>0.1029411764705882</v>
@@ -34444,7 +34396,7 @@
     </row>
     <row r="838" spans="10:17">
       <c r="J838" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="K838">
         <v>0.1013363028953229</v>
@@ -34964,7 +34916,7 @@
     </row>
     <row r="858" spans="10:17">
       <c r="J858" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K858">
         <v>0.1</v>
@@ -35536,7 +35488,7 @@
     </row>
     <row r="880" spans="10:17">
       <c r="J880" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="K880">
         <v>0.09977578475336323</v>
@@ -35562,7 +35514,7 @@
     </row>
     <row r="881" spans="10:17">
       <c r="J881" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="K881">
         <v>0.09782608695652174</v>
@@ -35718,7 +35670,7 @@
     </row>
     <row r="887" spans="10:17">
       <c r="J887" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="K887">
         <v>0.09606373008434864</v>
@@ -35744,7 +35696,7 @@
     </row>
     <row r="888" spans="10:17">
       <c r="J888" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="K888">
         <v>0.0953757225433526</v>
@@ -35822,7 +35774,7 @@
     </row>
     <row r="891" spans="10:17">
       <c r="J891" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K891">
         <v>0.09523809523809523</v>
@@ -35874,7 +35826,7 @@
     </row>
     <row r="893" spans="10:17">
       <c r="J893" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K893">
         <v>0.09523809523809523</v>
@@ -36108,7 +36060,7 @@
     </row>
     <row r="902" spans="10:17">
       <c r="J902" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="K902">
         <v>0.0909970958373669</v>
@@ -36342,7 +36294,7 @@
     </row>
     <row r="911" spans="10:17">
       <c r="J911" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K911">
         <v>0.09090909090909091</v>
@@ -36368,7 +36320,7 @@
     </row>
     <row r="912" spans="10:17">
       <c r="J912" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K912">
         <v>0.09090909090909091</v>
@@ -36550,7 +36502,7 @@
     </row>
     <row r="919" spans="10:17">
       <c r="J919" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K919">
         <v>0.09090909090909091</v>
@@ -36576,7 +36528,7 @@
     </row>
     <row r="920" spans="10:17">
       <c r="J920" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K920">
         <v>0.09090909090909091</v>
@@ -36810,7 +36762,7 @@
     </row>
     <row r="929" spans="10:17">
       <c r="J929" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K929">
         <v>0.09090909090909091</v>
@@ -36992,7 +36944,7 @@
     </row>
     <row r="936" spans="10:17">
       <c r="J936" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="K936">
         <v>0.08823529411764706</v>
@@ -37044,7 +36996,7 @@
     </row>
     <row r="938" spans="10:17">
       <c r="J938" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="K938">
         <v>0.0873015873015873</v>
@@ -37070,7 +37022,7 @@
     </row>
     <row r="939" spans="10:17">
       <c r="J939" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="K939">
         <v>0.08695652173913043</v>
@@ -37122,7 +37074,7 @@
     </row>
     <row r="941" spans="10:17">
       <c r="J941" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K941">
         <v>0.08695652173913043</v>
@@ -37330,7 +37282,7 @@
     </row>
     <row r="949" spans="10:17">
       <c r="J949" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K949">
         <v>0.0851063829787234</v>
@@ -37408,7 +37360,7 @@
     </row>
     <row r="952" spans="10:17">
       <c r="J952" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K952">
         <v>0.08333333333333333</v>
@@ -37824,7 +37776,7 @@
     </row>
     <row r="968" spans="10:17">
       <c r="J968" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K968">
         <v>0.08333333333333333</v>
@@ -38162,7 +38114,7 @@
     </row>
     <row r="981" spans="10:17">
       <c r="J981" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="K981">
         <v>0.08064516129032258</v>
@@ -38396,7 +38348,7 @@
     </row>
     <row r="990" spans="10:17">
       <c r="J990" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K990">
         <v>0.07692307692307693</v>
@@ -38422,7 +38374,7 @@
     </row>
     <row r="991" spans="10:17">
       <c r="J991" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K991">
         <v>0.07692307692307693</v>
@@ -38526,7 +38478,7 @@
     </row>
     <row r="995" spans="10:17">
       <c r="J995" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K995">
         <v>0.07692307692307693</v>
@@ -38838,7 +38790,7 @@
     </row>
     <row r="1007" spans="10:17">
       <c r="J1007" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K1007">
         <v>0.07692307692307693</v>
@@ -39124,7 +39076,7 @@
     </row>
     <row r="1018" spans="10:17">
       <c r="J1018" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K1018">
         <v>0.075</v>
@@ -39150,7 +39102,7 @@
     </row>
     <row r="1019" spans="10:17">
       <c r="J1019" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="K1019">
         <v>0.07476635514018691</v>
@@ -39722,7 +39674,7 @@
     </row>
     <row r="1041" spans="10:17">
       <c r="J1041" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K1041">
         <v>0.07142857142857142</v>
@@ -39774,7 +39726,7 @@
     </row>
     <row r="1043" spans="10:17">
       <c r="J1043" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K1043">
         <v>0.0707070707070707</v>
@@ -39852,7 +39804,7 @@
     </row>
     <row r="1046" spans="10:17">
       <c r="J1046" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="K1046">
         <v>0.06960556844547564</v>
@@ -40034,7 +39986,7 @@
     </row>
     <row r="1053" spans="10:17">
       <c r="J1053" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="K1053">
         <v>0.06818181818181818</v>
@@ -40060,7 +40012,7 @@
     </row>
     <row r="1054" spans="10:17">
       <c r="J1054" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K1054">
         <v>0.06818181818181818</v>
@@ -40086,7 +40038,7 @@
     </row>
     <row r="1055" spans="10:17">
       <c r="J1055" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K1055">
         <v>0.06818181818181818</v>
@@ -40398,7 +40350,7 @@
     </row>
     <row r="1067" spans="10:17">
       <c r="J1067" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K1067">
         <v>0.06666666666666667</v>
@@ -40528,7 +40480,7 @@
     </row>
     <row r="1072" spans="10:17">
       <c r="J1072" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K1072">
         <v>0.06666666666666667</v>
@@ -40684,7 +40636,7 @@
     </row>
     <row r="1078" spans="10:17">
       <c r="J1078" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K1078">
         <v>0.06666666666666667</v>
@@ -40710,7 +40662,7 @@
     </row>
     <row r="1079" spans="10:17">
       <c r="J1079" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="K1079">
         <v>0.06593406593406594</v>
@@ -41178,7 +41130,7 @@
     </row>
     <row r="1097" spans="10:17">
       <c r="J1097" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K1097">
         <v>0.0625</v>
@@ -41438,7 +41390,7 @@
     </row>
     <row r="1107" spans="10:17">
       <c r="J1107" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K1107">
         <v>0.06060606060606061</v>
@@ -41490,7 +41442,7 @@
     </row>
     <row r="1109" spans="10:17">
       <c r="J1109" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K1109">
         <v>0.06060606060606061</v>
@@ -41542,7 +41494,7 @@
     </row>
     <row r="1111" spans="10:17">
       <c r="J1111" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K1111">
         <v>0.06</v>
@@ -41594,7 +41546,7 @@
     </row>
     <row r="1113" spans="10:17">
       <c r="J1113" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K1113">
         <v>0.05882352941176471</v>
@@ -42946,7 +42898,7 @@
     </row>
     <row r="1165" spans="10:17">
       <c r="J1165" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K1165">
         <v>0.05128205128205128</v>
@@ -42998,7 +42950,7 @@
     </row>
     <row r="1167" spans="10:17">
       <c r="J1167" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="K1167">
         <v>0.05102040816326531</v>
@@ -43024,7 +42976,7 @@
     </row>
     <row r="1168" spans="10:17">
       <c r="J1168" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="K1168">
         <v>0.05012964563526361</v>
@@ -43570,7 +43522,7 @@
     </row>
     <row r="1189" spans="10:17">
       <c r="J1189" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="K1189">
         <v>0.0469630557294928</v>
@@ -43674,7 +43626,7 @@
     </row>
     <row r="1193" spans="10:17">
       <c r="J1193" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="K1193">
         <v>0.04615384615384616</v>
@@ -44324,7 +44276,7 @@
     </row>
     <row r="1218" spans="10:17">
       <c r="J1218" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K1218">
         <v>0.04081632653061224</v>
@@ -44818,7 +44770,7 @@
     </row>
     <row r="1237" spans="10:17">
       <c r="J1237" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K1237">
         <v>0.03703703703703703</v>
@@ -44974,7 +44926,7 @@
     </row>
     <row r="1243" spans="10:17">
       <c r="J1243" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="K1243">
         <v>0.03571428571428571</v>
@@ -45026,7 +44978,7 @@
     </row>
     <row r="1245" spans="10:17">
       <c r="J1245" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K1245">
         <v>0.03571428571428571</v>
@@ -45416,7 +45368,7 @@
     </row>
     <row r="1260" spans="10:17">
       <c r="J1260" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="K1260">
         <v>0.03125</v>
@@ -45468,7 +45420,7 @@
     </row>
     <row r="1262" spans="10:17">
       <c r="J1262" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="K1262">
         <v>0.03064066852367688</v>
@@ -45728,7 +45680,7 @@
     </row>
     <row r="1272" spans="10:17">
       <c r="J1272" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="K1272">
         <v>0.02857142857142857</v>
@@ -45858,7 +45810,7 @@
     </row>
     <row r="1277" spans="10:17">
       <c r="J1277" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K1277">
         <v>0.0273972602739726</v>
@@ -46066,7 +46018,7 @@
     </row>
     <row r="1285" spans="10:17">
       <c r="J1285" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K1285">
         <v>0.02631578947368421</v>
@@ -46274,7 +46226,7 @@
     </row>
     <row r="1293" spans="10:17">
       <c r="J1293" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="K1293">
         <v>0.02390852390852391</v>
@@ -46586,7 +46538,7 @@
     </row>
     <row r="1305" spans="10:17">
       <c r="J1305" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="K1305">
         <v>0.02205882352941177</v>
@@ -46716,7 +46668,7 @@
     </row>
     <row r="1310" spans="10:17">
       <c r="J1310" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="K1310">
         <v>0.02127659574468085</v>
@@ -46768,7 +46720,7 @@
     </row>
     <row r="1312" spans="10:17">
       <c r="J1312" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="K1312">
         <v>0.0202020202020202</v>
@@ -46794,7 +46746,7 @@
     </row>
     <row r="1313" spans="10:17">
       <c r="J1313" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K1313">
         <v>0.02</v>
@@ -46872,7 +46824,7 @@
     </row>
     <row r="1316" spans="10:17">
       <c r="J1316" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K1316">
         <v>0.01886792452830189</v>
@@ -47002,7 +46954,7 @@
     </row>
     <row r="1321" spans="10:17">
       <c r="J1321" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="K1321">
         <v>0.01724137931034483</v>
@@ -47028,7 +46980,7 @@
     </row>
     <row r="1322" spans="10:17">
       <c r="J1322" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="K1322">
         <v>0.01724137931034483</v>
